--- a/blue archive.xlsx
+++ b/blue archive.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15375" windowHeight="13035"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="276">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="512" uniqueCount="508">
   <si>
     <t>アイリ</t>
     <phoneticPr fontId="1"/>
@@ -1672,23 +1672,719 @@
       <t>サカ</t>
     </rPh>
     <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アケミ</t>
+  </si>
+  <si>
+    <t>栗浜</t>
+  </si>
+  <si>
+    <t>カグヤ</t>
+  </si>
+  <si>
+    <t>漆原</t>
+  </si>
+  <si>
+    <t>アズサ</t>
+  </si>
+  <si>
+    <t>Et Omnia Vanitas</t>
+  </si>
+  <si>
+    <t>イチカ</t>
+  </si>
+  <si>
+    <t>レッドドラゴン</t>
+  </si>
+  <si>
+    <t>ウミカ</t>
+  </si>
+  <si>
+    <t>お祭りの熱気</t>
+  </si>
+  <si>
+    <t>カホ</t>
+  </si>
+  <si>
+    <t>戦略リーダーのノウハウ</t>
+  </si>
+  <si>
+    <t>キララ</t>
+  </si>
+  <si>
+    <t>チョコレート＆ストロベリー</t>
+  </si>
+  <si>
+    <t>ココナ</t>
+  </si>
+  <si>
+    <t>レディーの気品</t>
+  </si>
+  <si>
+    <t>サオリ</t>
+  </si>
+  <si>
+    <t>アリウス製アサルトライフル</t>
+  </si>
+  <si>
+    <t>サクラコ</t>
+  </si>
+  <si>
+    <t>浄化の織り手</t>
+  </si>
+  <si>
+    <t>シロコ</t>
+  </si>
+  <si>
+    <t>WHITE FANG 465</t>
+  </si>
+  <si>
+    <t>シロコ*テラー</t>
+  </si>
+  <si>
+    <t>BLACK FANG 465</t>
+  </si>
+  <si>
+    <t>チアキ</t>
+  </si>
+  <si>
+    <t>カメラブリッツ</t>
+  </si>
+  <si>
+    <t>チヒロ</t>
+  </si>
+  <si>
+    <t>バックドア</t>
+  </si>
+  <si>
+    <t>ヒフミ</t>
+  </si>
+  <si>
+    <t>マイ・ネセシティ</t>
+  </si>
+  <si>
+    <t>ミノリ</t>
+  </si>
+  <si>
+    <t>鋼鉄の松明</t>
+  </si>
+  <si>
+    <t>レイジョ</t>
+  </si>
+  <si>
+    <t>明鏡止水</t>
+  </si>
+  <si>
+    <t>アカリ</t>
+  </si>
+  <si>
+    <t>ボムとレス</t>
+  </si>
+  <si>
+    <t>ジュンコ</t>
+  </si>
+  <si>
+    <t>ダイナーズアウトロー</t>
+  </si>
+  <si>
+    <t>セリカ</t>
+  </si>
+  <si>
+    <t>シンシアリティ</t>
+  </si>
+  <si>
+    <t>ハナエ</t>
+  </si>
+  <si>
+    <t>ハッピースマイリー</t>
+  </si>
+  <si>
+    <t>ハナコ</t>
+  </si>
+  <si>
+    <t>オネストウィッシュ</t>
+  </si>
+  <si>
+    <t>ハレ</t>
+  </si>
+  <si>
+    <t>オートエイマー</t>
+  </si>
+  <si>
+    <t>モモイ</t>
+  </si>
+  <si>
+    <t>ユニーク・アイディア</t>
+  </si>
+  <si>
+    <t>アスナ</t>
+  </si>
+  <si>
+    <t>サプライズパーティー</t>
+  </si>
+  <si>
+    <t>イブキ</t>
+  </si>
+  <si>
+    <t>バンバーン！ちゃん</t>
+  </si>
+  <si>
+    <t>シミコ</t>
+  </si>
+  <si>
+    <t>ライブラリールーラー</t>
+  </si>
+  <si>
+    <t>スズミ</t>
+  </si>
+  <si>
+    <t>セーフティー</t>
+  </si>
+  <si>
+    <t>セリナ</t>
+  </si>
+  <si>
+    <t>タクティカルセラピー</t>
+  </si>
+  <si>
+    <t>ヨシミ</t>
+  </si>
+  <si>
+    <t>スイーツドライバー</t>
+  </si>
+  <si>
+    <t>アル</t>
+  </si>
+  <si>
+    <t>ワインレッド・アドマイアー</t>
+  </si>
+  <si>
+    <t>イオリ</t>
+  </si>
+  <si>
+    <t>クラックショット</t>
+  </si>
+  <si>
+    <t>ウイ</t>
+  </si>
+  <si>
+    <t>ボリュームサプレッサー</t>
+  </si>
+  <si>
+    <t>カリン</t>
+  </si>
+  <si>
+    <t>ホークアイ</t>
+  </si>
+  <si>
+    <t>キキョウ</t>
+  </si>
+  <si>
+    <t>百花繚乱制式ライフル-紺碧の知恵</t>
+  </si>
+  <si>
+    <t>コハル</t>
+  </si>
+  <si>
+    <t>ジャスティス・ブラック</t>
+  </si>
+  <si>
+    <t>シュン</t>
+  </si>
+  <si>
+    <t>愛のムチ</t>
+  </si>
+  <si>
+    <t>ハルナ</t>
+  </si>
+  <si>
+    <t>アイディール</t>
+  </si>
+  <si>
+    <t>ヒヨリ</t>
+  </si>
+  <si>
+    <t>アイデンティティ</t>
+  </si>
+  <si>
+    <t>マコト</t>
+  </si>
+  <si>
+    <t>唯我独尊</t>
+  </si>
+  <si>
+    <t>マシロ</t>
+  </si>
+  <si>
+    <t>正義の顕現</t>
+  </si>
+  <si>
+    <t>ミドリ</t>
+  </si>
+  <si>
+    <t>フレッシュ・インスピレーション</t>
+  </si>
+  <si>
+    <t>ミユ</t>
+  </si>
+  <si>
+    <t>RABBIT-39式小銃</t>
+  </si>
+  <si>
+    <t>ユカリ</t>
+  </si>
+  <si>
+    <t>百花繚乱制式ライフル-少女の決意</t>
+  </si>
+  <si>
+    <t>レンゲ</t>
+  </si>
+  <si>
+    <t>百花繚乱制式-青春の火花</t>
+  </si>
+  <si>
+    <t>ワカモ</t>
+  </si>
+  <si>
+    <t>深紅の災厄</t>
+  </si>
+  <si>
+    <t>ハスミ</t>
+  </si>
+  <si>
+    <t>インペイルメント</t>
+  </si>
+  <si>
+    <t>トモエ</t>
+  </si>
+  <si>
+    <t>ヴィエールナシチ</t>
+  </si>
+  <si>
+    <t>フブキ</t>
+  </si>
+  <si>
+    <t>第14号ヴァルキューレ制式ライフル</t>
+  </si>
+  <si>
+    <t>アコ</t>
+  </si>
+  <si>
+    <t>ホットショット</t>
+  </si>
+  <si>
+    <t>イロハ</t>
+  </si>
+  <si>
+    <t>万魔殿制式拳銃</t>
+  </si>
+  <si>
+    <t>カスミ</t>
+  </si>
+  <si>
+    <t>レッド・レクター</t>
+  </si>
+  <si>
+    <t>カエデ</t>
+  </si>
+  <si>
+    <t>ファニー・ファイアワークス</t>
+  </si>
+  <si>
+    <t>カンナ</t>
+  </si>
+  <si>
+    <t>第17号ヴァルキューレ制式拳銃</t>
+  </si>
+  <si>
+    <t>サツキ</t>
+  </si>
+  <si>
+    <t>NKデルタ</t>
+  </si>
+  <si>
+    <t>サヤ</t>
+  </si>
+  <si>
+    <t>ぼく様特製拳銃</t>
+  </si>
+  <si>
+    <t>チェリノ</t>
+  </si>
+  <si>
+    <t>チーストカ</t>
+  </si>
+  <si>
+    <t>ナギサ</t>
+  </si>
+  <si>
+    <t>ロイヤルブレンド</t>
+  </si>
+  <si>
+    <t>ノア</t>
+  </si>
+  <si>
+    <t>書記の採決</t>
+  </si>
+  <si>
+    <t>ヒナタ</t>
+  </si>
+  <si>
+    <t>ブレッシング</t>
+  </si>
+  <si>
+    <t>ヒマリ</t>
+  </si>
+  <si>
+    <t>高嶺の花</t>
+  </si>
+  <si>
+    <t>ミモリ</t>
+  </si>
+  <si>
+    <t>柔らかな決意</t>
+  </si>
+  <si>
+    <t>ミナ</t>
+  </si>
+  <si>
+    <t>玄龍＆白虎</t>
+  </si>
+  <si>
+    <t>メル</t>
+  </si>
+  <si>
+    <t>創作の･･････苦しみ！</t>
+  </si>
+  <si>
+    <t>モエ</t>
+  </si>
+  <si>
+    <t>RABBIT-223式拳銃</t>
+  </si>
+  <si>
+    <t>アカネ</t>
+  </si>
+  <si>
+    <t>サイレントソリューション</t>
+  </si>
+  <si>
+    <t>アヤネ</t>
+  </si>
+  <si>
+    <t>コモンセンス</t>
+  </si>
+  <si>
+    <t>カヨコ</t>
+  </si>
+  <si>
+    <t>デモンズロア</t>
+  </si>
+  <si>
+    <t>キリノ</t>
+  </si>
+  <si>
+    <t>第3式ヴァルキューレ制式拳銃</t>
+  </si>
+  <si>
+    <t>マリー</t>
+  </si>
+  <si>
+    <t>パイエティー</t>
+  </si>
+  <si>
+    <t>コタマ</t>
+  </si>
+  <si>
+    <t>エコーリンク</t>
+  </si>
+  <si>
+    <t>チナツ</t>
+  </si>
+  <si>
+    <t>ツクヨ</t>
+  </si>
+  <si>
+    <t>ツバキ</t>
+  </si>
+  <si>
+    <t>ツルギ</t>
+  </si>
+  <si>
+    <t>ナツ</t>
+  </si>
+  <si>
+    <t>ネル</t>
+  </si>
+  <si>
+    <t>サポートポインター</t>
+  </si>
+  <si>
+    <t>アツコ</t>
+  </si>
+  <si>
+    <t>スコルピウス</t>
+  </si>
+  <si>
+    <t>イズナ</t>
+  </si>
+  <si>
+    <t>イズナ流スーパー忍具</t>
+  </si>
+  <si>
+    <t>キサキ</t>
+  </si>
+  <si>
+    <t>知彼知己</t>
+  </si>
+  <si>
+    <t>ツクヨ流サブマシンガン</t>
+  </si>
+  <si>
+    <t>ビヨンド・ザ・ルミネーション</t>
+  </si>
+  <si>
+    <t>ツイン・ドラゴン</t>
+  </si>
+  <si>
+    <t>マリナ</t>
+  </si>
+  <si>
+    <t>バラライカ</t>
+  </si>
+  <si>
+    <t>ミカ</t>
+  </si>
+  <si>
+    <t>Quis ut Deus</t>
+  </si>
+  <si>
+    <t>ミヤコ</t>
+  </si>
+  <si>
+    <t>RABBIT-31式短機関銃</t>
+  </si>
+  <si>
+    <t>ルミ</t>
+  </si>
+  <si>
+    <t>温故知新</t>
+  </si>
+  <si>
+    <t>アイリ</t>
+  </si>
+  <si>
+    <t>爽やかチョコミント</t>
+  </si>
+  <si>
+    <t>ウタハ</t>
+  </si>
+  <si>
+    <t>マイスター・ゼロ</t>
+  </si>
+  <si>
+    <t>安眠のお供Ⅱ</t>
+  </si>
+  <si>
+    <t>フウカ</t>
+  </si>
+  <si>
+    <t>給食部の護身用銃typeA</t>
+  </si>
+  <si>
+    <t>ノドカ</t>
+  </si>
+  <si>
+    <t>ノノミ</t>
+  </si>
+  <si>
+    <t>ハルカ</t>
+  </si>
+  <si>
+    <t>ヒナ</t>
+  </si>
+  <si>
+    <t>ヒビキ</t>
+  </si>
+  <si>
+    <t>サジタリウスナイト</t>
+  </si>
+  <si>
+    <t>イズミ</t>
+  </si>
+  <si>
+    <t>デイリーカトラリー</t>
+  </si>
+  <si>
+    <t>カズサ</t>
+  </si>
+  <si>
+    <t>マビノギオン</t>
+  </si>
+  <si>
+    <t>コユキ</t>
+  </si>
+  <si>
+    <t>マリ・ガン</t>
+  </si>
+  <si>
+    <t>サキ</t>
+  </si>
+  <si>
+    <t>RABBIT-26式機関銃</t>
+  </si>
+  <si>
+    <t>終幕:デストロイヤー</t>
+  </si>
+  <si>
+    <t>マキ</t>
+  </si>
+  <si>
+    <t>オートラッカー</t>
+  </si>
+  <si>
+    <t>リトルマシンガンⅤ</t>
+  </si>
+  <si>
+    <t>ムツキ</t>
+  </si>
+  <si>
+    <t>トリックオアトリック</t>
+  </si>
+  <si>
+    <t>コトリ</t>
+  </si>
+  <si>
+    <t>プロフェッサーK</t>
+  </si>
+  <si>
+    <t>フィーナ</t>
+  </si>
+  <si>
+    <t>仁義なき撃ち合い</t>
+  </si>
+  <si>
+    <t>エイミ</t>
+  </si>
+  <si>
+    <t>マルチタクティカル</t>
+  </si>
+  <si>
+    <t>スミレ</t>
+  </si>
+  <si>
+    <t>ミレニアム製最新型ダンベル</t>
+  </si>
+  <si>
+    <t>ブラッド＆ガンパウダー</t>
+  </si>
+  <si>
+    <t>ホシノ</t>
+  </si>
+  <si>
+    <t>Eye of Horus</t>
+  </si>
+  <si>
+    <t>ミネ</t>
+  </si>
+  <si>
+    <t>救護の証明</t>
+  </si>
+  <si>
+    <t>レイサ</t>
+  </si>
+  <si>
+    <t>シューティング☆スター</t>
+  </si>
+  <si>
+    <t>シズコ</t>
+  </si>
+  <si>
+    <t>桜ボンボン</t>
+  </si>
+  <si>
+    <t>ジュリ</t>
+  </si>
+  <si>
+    <t>給食部の護身用銃typeB</t>
+  </si>
+  <si>
+    <t>ブローアウェイ</t>
+  </si>
+  <si>
+    <t>ミチル</t>
+  </si>
+  <si>
+    <t>ミチル流オーバーフローショットガン</t>
+  </si>
+  <si>
+    <t>シグレ</t>
+  </si>
+  <si>
+    <t>スプリングパンチ</t>
+  </si>
+  <si>
+    <t>セナ</t>
+  </si>
+  <si>
+    <t>救急用突入キット</t>
+  </si>
+  <si>
+    <t>ユズ</t>
+  </si>
+  <si>
+    <t>にゃん's ダッシュ</t>
+  </si>
+  <si>
+    <t>チセ</t>
+  </si>
+  <si>
+    <t>五七五式榴弾砲</t>
+  </si>
+  <si>
+    <t>ファンシーライト</t>
+  </si>
+  <si>
+    <t>アリス</t>
+  </si>
+  <si>
+    <t>光の剣:スーパーノヴァ</t>
+  </si>
+  <si>
+    <t>ミサキ</t>
+  </si>
+  <si>
+    <t>セイントプレデター</t>
+  </si>
+  <si>
+    <t>モミジ</t>
+  </si>
+  <si>
+    <t>図書館利用規約第7号</t>
+  </si>
+  <si>
+    <t>メグ</t>
+  </si>
+  <si>
+    <t>メグマパワー！</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="游ゴシック"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="6"/>
-      <name val="游ゴシック"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -1996,1131 +2692,1831 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B140"/>
+  <dimension ref="A1:D142"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A121" workbookViewId="0">
-      <selection activeCell="A141" sqref="A141"/>
+    <sheetView tabSelected="1" topLeftCell="A112" workbookViewId="0">
+      <selection activeCell="D114" sqref="D114"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C1" t="s">
+        <v>280</v>
+      </c>
+      <c r="D1" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
         <v>2</v>
       </c>
       <c r="B2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C2" t="s">
+        <v>282</v>
+      </c>
+      <c r="D2" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" t="s">
         <v>4</v>
       </c>
       <c r="B3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C3" t="s">
+        <v>284</v>
+      </c>
+      <c r="D3" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4" t="s">
         <v>4</v>
       </c>
       <c r="B4" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C4" t="s">
+        <v>286</v>
+      </c>
+      <c r="D4" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5" t="s">
         <v>7</v>
       </c>
       <c r="B5" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C5" t="s">
+        <v>288</v>
+      </c>
+      <c r="D5" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6" t="s">
+        <v>276</v>
+      </c>
+      <c r="B6" t="s">
+        <v>277</v>
+      </c>
+      <c r="C6" t="s">
+        <v>290</v>
+      </c>
+      <c r="D6" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" t="s">
         <v>11</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B7" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A7" t="s">
+      <c r="C7" t="s">
+        <v>292</v>
+      </c>
+      <c r="D7" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" t="s">
         <v>9</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B8" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A8" t="s">
+      <c r="C8" t="s">
+        <v>294</v>
+      </c>
+      <c r="D8" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" t="s">
         <v>13</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B9" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A9" t="s">
+      <c r="C9" t="s">
+        <v>296</v>
+      </c>
+      <c r="D9" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" t="s">
         <v>15</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B10" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A10" t="s">
+      <c r="C10" t="s">
+        <v>298</v>
+      </c>
+      <c r="D10" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" t="s">
         <v>18</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B11" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A11" t="s">
+      <c r="C11" t="s">
+        <v>300</v>
+      </c>
+      <c r="D11" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" t="s">
         <v>19</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B12" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A12" t="s">
+      <c r="C12" t="s">
+        <v>302</v>
+      </c>
+      <c r="D12" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" t="s">
         <v>21</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B13" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A13" t="s">
+      <c r="C13" t="s">
+        <v>304</v>
+      </c>
+      <c r="D13" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" t="s">
         <v>23</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B14" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A14" t="s">
+      <c r="C14" t="s">
+        <v>306</v>
+      </c>
+      <c r="D14" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" t="s">
         <v>25</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B15" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A15" t="s">
+      <c r="C15" t="s">
+        <v>308</v>
+      </c>
+      <c r="D15" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" t="s">
         <v>27</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B16" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A16" t="s">
+      <c r="C16" t="s">
+        <v>310</v>
+      </c>
+      <c r="D16" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" t="s">
         <v>29</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B17" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A17" t="s">
+      <c r="C17" t="s">
+        <v>312</v>
+      </c>
+      <c r="D17" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" t="s">
         <v>31</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B18" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A18" t="s">
+      <c r="C18" t="s">
+        <v>314</v>
+      </c>
+      <c r="D18" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" t="s">
         <v>33</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B19" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A19" t="s">
+      <c r="C19" t="s">
+        <v>316</v>
+      </c>
+      <c r="D19" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" t="s">
         <v>35</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B20" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A20" t="s">
+      <c r="C20" t="s">
+        <v>318</v>
+      </c>
+      <c r="D20" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" t="s">
         <v>37</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B21" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A21" t="s">
+      <c r="C21" t="s">
+        <v>320</v>
+      </c>
+      <c r="D21" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" t="s">
         <v>39</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B22" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A22" t="s">
+      <c r="C22" t="s">
+        <v>322</v>
+      </c>
+      <c r="D22" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" t="s">
         <v>41</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B23" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A23" t="s">
+      <c r="C23" t="s">
+        <v>324</v>
+      </c>
+      <c r="D23" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" t="s">
         <v>43</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B24" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A24" t="s">
+      <c r="C24" t="s">
+        <v>326</v>
+      </c>
+      <c r="D24" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" t="s">
         <v>45</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B25" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A25" t="s">
+      <c r="C25" t="s">
+        <v>328</v>
+      </c>
+      <c r="D25" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" t="s">
         <v>47</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B26" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A26" t="s">
+      <c r="C26" t="s">
+        <v>330</v>
+      </c>
+      <c r="D26" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" t="s">
         <v>49</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B27" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A27" t="s">
+      <c r="C27" t="s">
+        <v>332</v>
+      </c>
+      <c r="D27" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" t="s">
+        <v>278</v>
+      </c>
+      <c r="B28" t="s">
+        <v>279</v>
+      </c>
+      <c r="C28" t="s">
+        <v>334</v>
+      </c>
+      <c r="D28" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" t="s">
         <v>51</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B29" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A28" t="s">
+      <c r="C29" t="s">
+        <v>336</v>
+      </c>
+      <c r="D29" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" t="s">
         <v>53</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B30" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A29" t="s">
+      <c r="C30" t="s">
+        <v>338</v>
+      </c>
+      <c r="D30" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" t="s">
         <v>55</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B31" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A30" t="s">
+      <c r="C31" t="s">
+        <v>340</v>
+      </c>
+      <c r="D31" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32" t="s">
         <v>57</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B32" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A31" t="s">
+      <c r="C32" t="s">
+        <v>342</v>
+      </c>
+      <c r="D32" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33" t="s">
         <v>59</v>
       </c>
-      <c r="B31" t="s">
+      <c r="B33" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A32" t="s">
+      <c r="C33" t="s">
+        <v>344</v>
+      </c>
+      <c r="D33" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" t="s">
         <v>61</v>
       </c>
-      <c r="B32" t="s">
+      <c r="B34" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A33" t="s">
+      <c r="C34" t="s">
+        <v>346</v>
+      </c>
+      <c r="D34" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35" t="s">
         <v>63</v>
       </c>
-      <c r="B33" t="s">
+      <c r="B35" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A34" t="s">
+      <c r="C35" t="s">
+        <v>348</v>
+      </c>
+      <c r="D35" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" t="s">
         <v>65</v>
       </c>
-      <c r="B34" t="s">
+      <c r="B36" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A35" t="s">
+      <c r="C36" t="s">
+        <v>350</v>
+      </c>
+      <c r="D36" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37" t="s">
         <v>67</v>
       </c>
-      <c r="B35" t="s">
+      <c r="B37" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A36" t="s">
+      <c r="C37" t="s">
+        <v>352</v>
+      </c>
+      <c r="D37" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38" t="s">
         <v>69</v>
       </c>
-      <c r="B36" t="s">
+      <c r="B38" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A37" t="s">
+      <c r="C38" t="s">
+        <v>354</v>
+      </c>
+      <c r="D38" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39" t="s">
         <v>71</v>
       </c>
-      <c r="B37" t="s">
+      <c r="B39" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A38" t="s">
+      <c r="C39" t="s">
+        <v>356</v>
+      </c>
+      <c r="D39" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40" t="s">
         <v>73</v>
       </c>
-      <c r="B38" t="s">
+      <c r="B40" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A39" t="s">
+      <c r="C40" t="s">
+        <v>358</v>
+      </c>
+      <c r="D40" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="A41" t="s">
         <v>75</v>
       </c>
-      <c r="B39" t="s">
+      <c r="B41" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A40" t="s">
+      <c r="C41" t="s">
+        <v>360</v>
+      </c>
+      <c r="D41" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
+      <c r="A42" t="s">
         <v>77</v>
       </c>
-      <c r="B40" t="s">
+      <c r="B42" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A41" t="s">
+      <c r="C42" t="s">
+        <v>362</v>
+      </c>
+      <c r="D42" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
+      <c r="A43" t="s">
         <v>79</v>
       </c>
-      <c r="B41" t="s">
+      <c r="B43" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A42" t="s">
+      <c r="C43" t="s">
+        <v>364</v>
+      </c>
+      <c r="D43" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
+      <c r="A44" t="s">
         <v>81</v>
       </c>
-      <c r="B42" t="s">
+      <c r="B44" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A43" t="s">
+      <c r="C44" t="s">
+        <v>366</v>
+      </c>
+      <c r="D44" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
+      <c r="A45" t="s">
         <v>83</v>
       </c>
-      <c r="B43" t="s">
+      <c r="B45" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A44" t="s">
+      <c r="C45" t="s">
+        <v>368</v>
+      </c>
+      <c r="D45" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
+      <c r="A46" t="s">
         <v>85</v>
       </c>
-      <c r="B44" t="s">
+      <c r="B46" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A45" t="s">
+      <c r="C46" t="s">
+        <v>370</v>
+      </c>
+      <c r="D46" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
+      <c r="A47" t="s">
         <v>87</v>
       </c>
-      <c r="B45" t="s">
+      <c r="B47" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A46" t="s">
+      <c r="C47" t="s">
+        <v>372</v>
+      </c>
+      <c r="D47" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
+      <c r="A48" t="s">
         <v>89</v>
       </c>
-      <c r="B46" t="s">
+      <c r="B48" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A47" t="s">
+      <c r="C48" t="s">
+        <v>374</v>
+      </c>
+      <c r="D48" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
+      <c r="A49" t="s">
         <v>91</v>
       </c>
-      <c r="B47" t="s">
+      <c r="B49" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A48" t="s">
+      <c r="C49" t="s">
+        <v>376</v>
+      </c>
+      <c r="D49" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
+      <c r="A50" t="s">
         <v>93</v>
       </c>
-      <c r="B48" t="s">
+      <c r="B50" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A49" t="s">
+      <c r="C50" t="s">
+        <v>378</v>
+      </c>
+      <c r="D50" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
+      <c r="A51" t="s">
         <v>95</v>
       </c>
-      <c r="B49" t="s">
+      <c r="B51" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A50" t="s">
+      <c r="C51" t="s">
+        <v>380</v>
+      </c>
+      <c r="D51" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
+      <c r="A52" t="s">
         <v>97</v>
       </c>
-      <c r="B50" t="s">
+      <c r="B52" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A51" t="s">
+      <c r="C52" t="s">
+        <v>382</v>
+      </c>
+      <c r="D52" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
+      <c r="A53" t="s">
         <v>99</v>
       </c>
-      <c r="B51" t="s">
+      <c r="B53" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A52" t="s">
+      <c r="C53" t="s">
+        <v>384</v>
+      </c>
+      <c r="D53" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
+      <c r="A54" t="s">
         <v>101</v>
       </c>
-      <c r="B52" t="s">
+      <c r="B54" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A53" t="s">
+      <c r="C54" t="s">
+        <v>386</v>
+      </c>
+      <c r="D54" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
+      <c r="A55" t="s">
         <v>103</v>
       </c>
-      <c r="B53" t="s">
+      <c r="B55" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A54" t="s">
+      <c r="C55" t="s">
+        <v>388</v>
+      </c>
+      <c r="D55" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
+      <c r="A56" t="s">
         <v>105</v>
       </c>
-      <c r="B54" t="s">
+      <c r="B56" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A55" t="s">
+      <c r="C56" t="s">
+        <v>390</v>
+      </c>
+      <c r="D56" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
+      <c r="A57" t="s">
         <v>106</v>
       </c>
-      <c r="B55" t="s">
+      <c r="B57" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A56" t="s">
+      <c r="C57" t="s">
+        <v>392</v>
+      </c>
+      <c r="D57" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
+      <c r="A58" t="s">
         <v>108</v>
       </c>
-      <c r="B56" t="s">
+      <c r="B58" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A57" t="s">
+      <c r="C58" t="s">
+        <v>394</v>
+      </c>
+      <c r="D58" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
+      <c r="A59" t="s">
         <v>110</v>
       </c>
-      <c r="B57" t="s">
+      <c r="B59" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A58" t="s">
+      <c r="C59" t="s">
+        <v>396</v>
+      </c>
+      <c r="D59" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
+      <c r="A60" t="s">
         <v>112</v>
       </c>
-      <c r="B58" t="s">
+      <c r="B60" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A59" t="s">
+      <c r="C60" t="s">
+        <v>398</v>
+      </c>
+      <c r="D60" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4">
+      <c r="A61" t="s">
         <v>114</v>
       </c>
-      <c r="B59" t="s">
+      <c r="B61" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A60" t="s">
+      <c r="C61" t="s">
+        <v>400</v>
+      </c>
+      <c r="D61" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4">
+      <c r="A62" t="s">
         <v>116</v>
       </c>
-      <c r="B60" t="s">
+      <c r="B62" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A61" t="s">
+      <c r="C62" t="s">
+        <v>402</v>
+      </c>
+      <c r="D62" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4">
+      <c r="A63" t="s">
         <v>118</v>
       </c>
-      <c r="B61" t="s">
+      <c r="B63" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A62" t="s">
+      <c r="C63" t="s">
+        <v>404</v>
+      </c>
+      <c r="D63" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4">
+      <c r="A64" t="s">
         <v>120</v>
       </c>
-      <c r="B62" t="s">
+      <c r="B64" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A63" t="s">
+      <c r="C64" t="s">
+        <v>406</v>
+      </c>
+      <c r="D64" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4">
+      <c r="A65" t="s">
         <v>122</v>
       </c>
-      <c r="B63" t="s">
+      <c r="B65" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A64" t="s">
+      <c r="C65" t="s">
+        <v>408</v>
+      </c>
+      <c r="D65" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4">
+      <c r="A66" t="s">
         <v>124</v>
       </c>
-      <c r="B64" t="s">
+      <c r="B66" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A65" t="s">
+      <c r="C66" t="s">
+        <v>410</v>
+      </c>
+      <c r="D66" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4">
+      <c r="A67" t="s">
         <v>126</v>
       </c>
-      <c r="B65" t="s">
+      <c r="B67" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A66" t="s">
+      <c r="C67" t="s">
+        <v>412</v>
+      </c>
+      <c r="D67" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4">
+      <c r="A68" t="s">
         <v>128</v>
       </c>
-      <c r="B66" t="s">
+      <c r="B68" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A67" t="s">
+      <c r="C68" t="s">
+        <v>414</v>
+      </c>
+      <c r="D68" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4">
+      <c r="A69" t="s">
         <v>130</v>
       </c>
-      <c r="B67" t="s">
+      <c r="B69" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A68" t="s">
+      <c r="C69" t="s">
+        <v>416</v>
+      </c>
+      <c r="D69" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4">
+      <c r="A70" t="s">
         <v>132</v>
       </c>
-      <c r="B68" t="s">
+      <c r="B70" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A69" t="s">
+      <c r="C70" t="s">
+        <v>418</v>
+      </c>
+      <c r="D70" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4">
+      <c r="A71" t="s">
         <v>134</v>
       </c>
-      <c r="B69" t="s">
+      <c r="B71" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A70" t="s">
+      <c r="C71" t="s">
+        <v>425</v>
+      </c>
+      <c r="D71" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4">
+      <c r="A72" t="s">
         <v>136</v>
       </c>
-      <c r="B70" t="s">
+      <c r="B72" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A71" t="s">
+      <c r="C72" t="s">
+        <v>427</v>
+      </c>
+      <c r="D72" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4">
+      <c r="A73" t="s">
         <v>138</v>
       </c>
-      <c r="B71" t="s">
+      <c r="B73" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A72" t="s">
+      <c r="C73" t="s">
+        <v>429</v>
+      </c>
+      <c r="D73" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4">
+      <c r="A74" t="s">
         <v>140</v>
       </c>
-      <c r="B72" t="s">
+      <c r="B74" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A73" t="s">
+      <c r="C74" t="s">
+        <v>419</v>
+      </c>
+      <c r="D74" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4">
+      <c r="A75" t="s">
         <v>142</v>
       </c>
-      <c r="B73" t="s">
+      <c r="B75" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A74" t="s">
+      <c r="C75" t="s">
+        <v>422</v>
+      </c>
+      <c r="D75" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4">
+      <c r="A76" t="s">
         <v>144</v>
       </c>
-      <c r="B74" t="s">
+      <c r="B76" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A75" t="s">
+      <c r="C76" t="s">
+        <v>423</v>
+      </c>
+      <c r="D76" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4">
+      <c r="A77" t="s">
         <v>146</v>
       </c>
-      <c r="B75" t="s">
+      <c r="B77" t="s">
         <v>147</v>
       </c>
-    </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A76" t="s">
+      <c r="C77" t="s">
+        <v>434</v>
+      </c>
+      <c r="D77" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4">
+      <c r="A78" t="s">
         <v>148</v>
       </c>
-      <c r="B76" t="s">
+      <c r="B78" t="s">
         <v>149</v>
       </c>
-    </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A77" t="s">
+      <c r="C78" t="s">
+        <v>436</v>
+      </c>
+      <c r="D78" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4">
+      <c r="A79" t="s">
         <v>150</v>
       </c>
-      <c r="B77" t="s">
+      <c r="B79" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A78" t="s">
+      <c r="C79" t="s">
+        <v>438</v>
+      </c>
+      <c r="D79" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4">
+      <c r="A80" t="s">
         <v>152</v>
       </c>
-      <c r="B78" t="s">
+      <c r="B80" t="s">
         <v>153</v>
       </c>
-    </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A79" t="s">
+      <c r="C80" t="s">
+        <v>440</v>
+      </c>
+      <c r="D80" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4">
+      <c r="A81" t="s">
         <v>154</v>
       </c>
-      <c r="B79" t="s">
+      <c r="B81" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A80" t="s">
+      <c r="C81" t="s">
+        <v>442</v>
+      </c>
+      <c r="D81" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4">
+      <c r="A82" t="s">
         <v>156</v>
       </c>
-      <c r="B80" t="s">
+      <c r="B82" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A81" t="s">
+      <c r="C82" t="s">
+        <v>444</v>
+      </c>
+      <c r="D82" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4">
+      <c r="A83" t="s">
         <v>158</v>
       </c>
-      <c r="B81" t="s">
+      <c r="B83" t="s">
         <v>159</v>
       </c>
-    </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A82" t="s">
+      <c r="C83" t="s">
+        <v>420</v>
+      </c>
+      <c r="D83" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4">
+      <c r="A84" t="s">
         <v>160</v>
       </c>
-      <c r="B82" t="s">
+      <c r="B84" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A83" t="s">
+      <c r="C84" t="s">
+        <v>447</v>
+      </c>
+      <c r="D84" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4">
+      <c r="A85" t="s">
         <v>162</v>
       </c>
-      <c r="B83" t="s">
+      <c r="B85" t="s">
         <v>163</v>
       </c>
-    </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A84" t="s">
+      <c r="C85" t="s">
+        <v>449</v>
+      </c>
+      <c r="D85" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4">
+      <c r="A86" t="s">
         <v>164</v>
       </c>
-      <c r="B84" t="s">
+      <c r="B86" t="s">
         <v>165</v>
       </c>
-    </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A85" t="s">
+      <c r="C86" t="s">
+        <v>455</v>
+      </c>
+      <c r="D86" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4">
+      <c r="A87" t="s">
         <v>166</v>
       </c>
-      <c r="B85" t="s">
+      <c r="B87" t="s">
         <v>167</v>
       </c>
-    </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A86" t="s">
+      <c r="C87" t="s">
+        <v>457</v>
+      </c>
+      <c r="D87" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4">
+      <c r="A88" t="s">
         <v>168</v>
       </c>
-      <c r="B86" t="s">
+      <c r="B88" t="s">
         <v>169</v>
       </c>
-    </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A87" t="s">
+      <c r="C88" t="s">
+        <v>459</v>
+      </c>
+      <c r="D88" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4">
+      <c r="A89" t="s">
         <v>170</v>
       </c>
-      <c r="B87" t="s">
+      <c r="B89" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A88" t="s">
+      <c r="C89" t="s">
+        <v>461</v>
+      </c>
+      <c r="D89" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4">
+      <c r="A90" t="s">
         <v>172</v>
       </c>
-      <c r="B88" t="s">
+      <c r="B90" t="s">
         <v>173</v>
       </c>
-    </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A89" t="s">
+      <c r="C90" t="s">
+        <v>452</v>
+      </c>
+      <c r="D90" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4">
+      <c r="A91" t="s">
         <v>174</v>
       </c>
-      <c r="B89" t="s">
+      <c r="B91" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A90" t="s">
+      <c r="C91" t="s">
+        <v>464</v>
+      </c>
+      <c r="D91" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4">
+      <c r="A92" t="s">
         <v>176</v>
       </c>
-      <c r="B90" t="s">
+      <c r="B92" t="s">
         <v>177</v>
       </c>
-    </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A91" t="s">
+      <c r="C92" t="s">
+        <v>450</v>
+      </c>
+      <c r="D92" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4">
+      <c r="A93" t="s">
         <v>178</v>
       </c>
-      <c r="B91" t="s">
+      <c r="B93" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A92" t="s">
+      <c r="C93" t="s">
+        <v>467</v>
+      </c>
+      <c r="D93" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4">
+      <c r="A94" t="s">
         <v>179</v>
       </c>
-      <c r="B92" t="s">
+      <c r="B94" t="s">
         <v>180</v>
       </c>
-    </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A93" t="s">
+      <c r="C94" t="s">
+        <v>469</v>
+      </c>
+      <c r="D94" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4">
+      <c r="A95" t="s">
         <v>181</v>
       </c>
-      <c r="B93" t="s">
+      <c r="B95" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A94" t="s">
+      <c r="C95" t="s">
+        <v>471</v>
+      </c>
+      <c r="D95" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4">
+      <c r="A96" t="s">
         <v>183</v>
       </c>
-      <c r="B94" t="s">
+      <c r="B96" t="s">
         <v>184</v>
       </c>
-    </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A95" t="s">
+      <c r="C96" t="s">
+        <v>473</v>
+      </c>
+      <c r="D96" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4">
+      <c r="A97" t="s">
         <v>185</v>
       </c>
-      <c r="B95" t="s">
+      <c r="B97" t="s">
         <v>186</v>
       </c>
-    </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A96" t="s">
+      <c r="C97" t="s">
+        <v>475</v>
+      </c>
+      <c r="D97" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4">
+      <c r="A98" t="s">
         <v>187</v>
       </c>
-      <c r="B96" t="s">
+      <c r="B98" t="s">
         <v>188</v>
       </c>
-    </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A97" t="s">
+      <c r="C98" t="s">
+        <v>421</v>
+      </c>
+      <c r="D98" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4">
+      <c r="A99" t="s">
         <v>189</v>
       </c>
-      <c r="B97" t="s">
+      <c r="B99" t="s">
         <v>190</v>
       </c>
-    </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A98" t="s">
+      <c r="C99" t="s">
+        <v>478</v>
+      </c>
+      <c r="D99" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4">
+      <c r="A100" t="s">
         <v>191</v>
       </c>
-      <c r="B98" t="s">
+      <c r="B100" t="s">
         <v>192</v>
       </c>
-    </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A99" t="s">
+      <c r="C100" t="s">
+        <v>480</v>
+      </c>
+      <c r="D100" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4">
+      <c r="A101" t="s">
         <v>193</v>
       </c>
-      <c r="B99" t="s">
+      <c r="B101" t="s">
         <v>194</v>
       </c>
-    </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A100" t="s">
+      <c r="C101" t="s">
+        <v>482</v>
+      </c>
+      <c r="D101" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4">
+      <c r="A102" t="s">
         <v>195</v>
       </c>
-      <c r="B100" t="s">
+      <c r="B102" t="s">
         <v>196</v>
       </c>
-    </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A101" t="s">
+      <c r="C102" t="s">
+        <v>484</v>
+      </c>
+      <c r="D102" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4">
+      <c r="A103" t="s">
         <v>197</v>
       </c>
-      <c r="B101" t="s">
+      <c r="B103" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A102" t="s">
+      <c r="C103" t="s">
+        <v>486</v>
+      </c>
+      <c r="D103" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4">
+      <c r="A104" t="s">
         <v>199</v>
       </c>
-      <c r="B102" t="s">
+      <c r="B104" t="s">
         <v>200</v>
       </c>
-    </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A103" t="s">
+      <c r="C104" t="s">
+        <v>451</v>
+      </c>
+      <c r="D104" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4">
+      <c r="A105" t="s">
         <v>201</v>
       </c>
-      <c r="B103" t="s">
+      <c r="B105" t="s">
         <v>202</v>
       </c>
-    </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A104" t="s">
+      <c r="C105" t="s">
+        <v>489</v>
+      </c>
+      <c r="D105" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4">
+      <c r="A106" t="s">
         <v>203</v>
       </c>
-      <c r="B104" t="s">
+      <c r="B106" t="s">
         <v>204</v>
       </c>
-    </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A105" t="s">
+      <c r="C106" t="s">
+        <v>491</v>
+      </c>
+      <c r="D106" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4">
+      <c r="A107" t="s">
         <v>205</v>
       </c>
-      <c r="B105" t="s">
+      <c r="B107" t="s">
         <v>206</v>
       </c>
-    </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A106" t="s">
+      <c r="C107" t="s">
+        <v>493</v>
+      </c>
+      <c r="D107" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4">
+      <c r="A108" t="s">
         <v>207</v>
       </c>
-      <c r="B106" t="s">
+      <c r="B108" t="s">
         <v>208</v>
       </c>
-    </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A107" t="s">
+      <c r="C108" t="s">
+        <v>495</v>
+      </c>
+      <c r="D108" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4">
+      <c r="A109" t="s">
         <v>209</v>
       </c>
-      <c r="B107" t="s">
+      <c r="B109" t="s">
         <v>210</v>
       </c>
-    </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A108" t="s">
+      <c r="C109" t="s">
+        <v>497</v>
+      </c>
+      <c r="D109" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4">
+      <c r="A110" t="s">
         <v>211</v>
       </c>
-      <c r="B108" t="s">
+      <c r="B110" t="s">
         <v>212</v>
       </c>
-    </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A109" t="s">
+      <c r="C110" t="s">
+        <v>453</v>
+      </c>
+      <c r="D110" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4">
+      <c r="A111" t="s">
         <v>213</v>
       </c>
-      <c r="B109" t="s">
+      <c r="B111" t="s">
         <v>214</v>
       </c>
-    </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A110" t="s">
+      <c r="C111" t="s">
+        <v>500</v>
+      </c>
+      <c r="D111" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4">
+      <c r="A112" t="s">
         <v>215</v>
       </c>
-      <c r="B110" t="s">
+      <c r="B112" t="s">
         <v>216</v>
       </c>
-    </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A111" t="s">
+      <c r="C112" t="s">
+        <v>502</v>
+      </c>
+      <c r="D112" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4">
+      <c r="A113" t="s">
         <v>217</v>
       </c>
-      <c r="B111" t="s">
+      <c r="B113" t="s">
         <v>218</v>
       </c>
-    </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A112" t="s">
+      <c r="C113" t="s">
+        <v>504</v>
+      </c>
+      <c r="D113" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4">
+      <c r="A114" t="s">
         <v>219</v>
       </c>
-      <c r="B112" t="s">
+      <c r="B114" t="s">
         <v>220</v>
       </c>
-    </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A113" t="s">
+      <c r="C114" t="s">
+        <v>506</v>
+      </c>
+      <c r="D114" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4">
+      <c r="A115" t="s">
         <v>221</v>
       </c>
-      <c r="B113" t="s">
+      <c r="B115" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A114" t="s">
+    <row r="116" spans="1:4">
+      <c r="A116" t="s">
         <v>223</v>
       </c>
-      <c r="B114" t="s">
+      <c r="B116" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A115" t="s">
+    <row r="117" spans="1:4">
+      <c r="A117" t="s">
         <v>225</v>
       </c>
-      <c r="B115" t="s">
+      <c r="B117" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A116" t="s">
+    <row r="118" spans="1:4">
+      <c r="A118" t="s">
         <v>227</v>
       </c>
-      <c r="B116" t="s">
+      <c r="B118" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A117" t="s">
+    <row r="119" spans="1:4">
+      <c r="A119" t="s">
         <v>229</v>
       </c>
-      <c r="B117" t="s">
+      <c r="B119" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A118" t="s">
+    <row r="120" spans="1:4">
+      <c r="A120" t="s">
         <v>231</v>
       </c>
-      <c r="B118" t="s">
+      <c r="B120" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A119" t="s">
+    <row r="121" spans="1:4">
+      <c r="A121" t="s">
         <v>233</v>
       </c>
-      <c r="B119" t="s">
+      <c r="B121" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A120" t="s">
+    <row r="122" spans="1:4">
+      <c r="A122" t="s">
         <v>235</v>
       </c>
-      <c r="B120" t="s">
+      <c r="B122" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A121" t="s">
+    <row r="123" spans="1:4">
+      <c r="A123" t="s">
         <v>237</v>
       </c>
-      <c r="B121" t="s">
+      <c r="B123" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A122" t="s">
+    <row r="124" spans="1:4">
+      <c r="A124" t="s">
         <v>239</v>
       </c>
-      <c r="B122" t="s">
+      <c r="B124" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A123" t="s">
+    <row r="125" spans="1:4">
+      <c r="A125" t="s">
         <v>241</v>
       </c>
-      <c r="B123" t="s">
+      <c r="B125" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A124" t="s">
+    <row r="126" spans="1:4">
+      <c r="A126" t="s">
         <v>242</v>
       </c>
-      <c r="B124" t="s">
+      <c r="B126" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A125" t="s">
+    <row r="127" spans="1:4">
+      <c r="A127" t="s">
         <v>244</v>
       </c>
-      <c r="B125" t="s">
+      <c r="B127" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A126" t="s">
+    <row r="128" spans="1:4">
+      <c r="A128" t="s">
         <v>246</v>
       </c>
-      <c r="B126" t="s">
+      <c r="B128" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A127" t="s">
+    <row r="129" spans="1:2">
+      <c r="A129" t="s">
         <v>248</v>
       </c>
-      <c r="B127" t="s">
+      <c r="B129" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A128" t="s">
+    <row r="130" spans="1:2">
+      <c r="A130" t="s">
         <v>250</v>
       </c>
-      <c r="B128" t="s">
+      <c r="B130" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A129" t="s">
+    <row r="131" spans="1:2">
+      <c r="A131" t="s">
         <v>252</v>
       </c>
-      <c r="B129" t="s">
+      <c r="B131" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A130" t="s">
+    <row r="132" spans="1:2">
+      <c r="A132" t="s">
         <v>254</v>
       </c>
-      <c r="B130" t="s">
+      <c r="B132" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A131" t="s">
+    <row r="133" spans="1:2">
+      <c r="A133" t="s">
         <v>256</v>
       </c>
-      <c r="B131" t="s">
+      <c r="B133" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A132" t="s">
+    <row r="134" spans="1:2">
+      <c r="A134" t="s">
         <v>258</v>
       </c>
-      <c r="B132" t="s">
+      <c r="B134" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A133" t="s">
+    <row r="135" spans="1:2">
+      <c r="A135" t="s">
         <v>260</v>
       </c>
-      <c r="B133" t="s">
+      <c r="B135" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A134" t="s">
+    <row r="136" spans="1:2">
+      <c r="A136" t="s">
         <v>262</v>
       </c>
-      <c r="B134" t="s">
+      <c r="B136" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A135" t="s">
+    <row r="137" spans="1:2">
+      <c r="A137" t="s">
         <v>264</v>
       </c>
-      <c r="B135" t="s">
+      <c r="B137" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A136" t="s">
+    <row r="138" spans="1:2">
+      <c r="A138" t="s">
         <v>266</v>
       </c>
-      <c r="B136" t="s">
+      <c r="B138" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A137" t="s">
+    <row r="139" spans="1:2">
+      <c r="A139" t="s">
         <v>268</v>
       </c>
-      <c r="B137" t="s">
+      <c r="B139" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A138" t="s">
+    <row r="140" spans="1:2">
+      <c r="A140" t="s">
         <v>270</v>
       </c>
-      <c r="B138" t="s">
+      <c r="B140" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A139" t="s">
+    <row r="141" spans="1:2">
+      <c r="A141" t="s">
         <v>272</v>
       </c>
-      <c r="B139" t="s">
+      <c r="B141" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A140" t="s">
+    <row r="142" spans="1:2">
+      <c r="A142" t="s">
         <v>274</v>
       </c>
-      <c r="B140" t="s">
+      <c r="B142" t="s">
         <v>275</v>
       </c>
     </row>

--- a/blue archive.xlsx
+++ b/blue archive.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28770" windowHeight="12180"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -57,16 +57,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>鰐渕</t>
-    <rPh sb="0" eb="1">
-      <t>ワニ</t>
-    </rPh>
-    <rPh sb="1" eb="2">
-      <t>フチ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>アキラ</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -2368,6 +2358,9 @@
   </si>
   <si>
     <t>メグマパワー！</t>
+  </si>
+  <si>
+    <t>室笠</t>
   </si>
 </sst>
 </file>
@@ -2694,8 +2687,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D142"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A112" workbookViewId="0">
-      <selection activeCell="D114" sqref="D114"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2708,10 +2701,10 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>279</v>
+      </c>
+      <c r="D1" t="s">
         <v>280</v>
-      </c>
-      <c r="D1" t="s">
-        <v>281</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -2722,10 +2715,10 @@
         <v>3</v>
       </c>
       <c r="C2" t="s">
+        <v>281</v>
+      </c>
+      <c r="D2" t="s">
         <v>282</v>
-      </c>
-      <c r="D2" t="s">
-        <v>283</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -2733,13 +2726,13 @@
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>507</v>
       </c>
       <c r="C3" t="s">
+        <v>283</v>
+      </c>
+      <c r="D3" t="s">
         <v>284</v>
-      </c>
-      <c r="D3" t="s">
-        <v>285</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -2747,1777 +2740,1777 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C4" t="s">
+        <v>285</v>
+      </c>
+      <c r="D4" t="s">
         <v>286</v>
-      </c>
-      <c r="D4" t="s">
-        <v>287</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" t="s">
         <v>7</v>
       </c>
-      <c r="B5" t="s">
-        <v>8</v>
-      </c>
       <c r="C5" t="s">
+        <v>287</v>
+      </c>
+      <c r="D5" t="s">
         <v>288</v>
-      </c>
-      <c r="D5" t="s">
-        <v>289</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
+        <v>275</v>
+      </c>
+      <c r="B6" t="s">
         <v>276</v>
       </c>
-      <c r="B6" t="s">
-        <v>277</v>
-      </c>
       <c r="C6" t="s">
+        <v>289</v>
+      </c>
+      <c r="D6" t="s">
         <v>290</v>
-      </c>
-      <c r="D6" t="s">
-        <v>291</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" t="s">
         <v>11</v>
       </c>
-      <c r="B7" t="s">
-        <v>12</v>
-      </c>
       <c r="C7" t="s">
+        <v>291</v>
+      </c>
+      <c r="D7" t="s">
         <v>292</v>
-      </c>
-      <c r="D7" t="s">
-        <v>293</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" t="s">
         <v>9</v>
       </c>
-      <c r="B8" t="s">
-        <v>10</v>
-      </c>
       <c r="C8" t="s">
+        <v>293</v>
+      </c>
+      <c r="D8" t="s">
         <v>294</v>
-      </c>
-      <c r="D8" t="s">
-        <v>295</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" t="s">
         <v>13</v>
       </c>
-      <c r="B9" t="s">
-        <v>14</v>
-      </c>
       <c r="C9" t="s">
+        <v>295</v>
+      </c>
+      <c r="D9" t="s">
         <v>296</v>
-      </c>
-      <c r="D9" t="s">
-        <v>297</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" t="s">
         <v>15</v>
       </c>
-      <c r="B10" t="s">
-        <v>16</v>
-      </c>
       <c r="C10" t="s">
+        <v>297</v>
+      </c>
+      <c r="D10" t="s">
         <v>298</v>
-      </c>
-      <c r="D10" t="s">
-        <v>299</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C11" t="s">
+        <v>299</v>
+      </c>
+      <c r="D11" t="s">
         <v>300</v>
-      </c>
-      <c r="D11" t="s">
-        <v>301</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
+        <v>18</v>
+      </c>
+      <c r="B12" t="s">
         <v>19</v>
       </c>
-      <c r="B12" t="s">
-        <v>20</v>
-      </c>
       <c r="C12" t="s">
+        <v>301</v>
+      </c>
+      <c r="D12" t="s">
         <v>302</v>
-      </c>
-      <c r="D12" t="s">
-        <v>303</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
+        <v>20</v>
+      </c>
+      <c r="B13" t="s">
         <v>21</v>
       </c>
-      <c r="B13" t="s">
-        <v>22</v>
-      </c>
       <c r="C13" t="s">
+        <v>303</v>
+      </c>
+      <c r="D13" t="s">
         <v>304</v>
-      </c>
-      <c r="D13" t="s">
-        <v>305</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
         <v>23</v>
       </c>
-      <c r="B14" t="s">
-        <v>24</v>
-      </c>
       <c r="C14" t="s">
+        <v>305</v>
+      </c>
+      <c r="D14" t="s">
         <v>306</v>
-      </c>
-      <c r="D14" t="s">
-        <v>307</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" t="s">
+        <v>24</v>
+      </c>
+      <c r="B15" t="s">
         <v>25</v>
       </c>
-      <c r="B15" t="s">
-        <v>26</v>
-      </c>
       <c r="C15" t="s">
+        <v>307</v>
+      </c>
+      <c r="D15" t="s">
         <v>308</v>
-      </c>
-      <c r="D15" t="s">
-        <v>309</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" t="s">
+        <v>26</v>
+      </c>
+      <c r="B16" t="s">
         <v>27</v>
       </c>
-      <c r="B16" t="s">
-        <v>28</v>
-      </c>
       <c r="C16" t="s">
+        <v>309</v>
+      </c>
+      <c r="D16" t="s">
         <v>310</v>
-      </c>
-      <c r="D16" t="s">
-        <v>311</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" t="s">
+        <v>28</v>
+      </c>
+      <c r="B17" t="s">
         <v>29</v>
       </c>
-      <c r="B17" t="s">
-        <v>30</v>
-      </c>
       <c r="C17" t="s">
+        <v>311</v>
+      </c>
+      <c r="D17" t="s">
         <v>312</v>
-      </c>
-      <c r="D17" t="s">
-        <v>313</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" t="s">
+        <v>30</v>
+      </c>
+      <c r="B18" t="s">
         <v>31</v>
       </c>
-      <c r="B18" t="s">
-        <v>32</v>
-      </c>
       <c r="C18" t="s">
+        <v>313</v>
+      </c>
+      <c r="D18" t="s">
         <v>314</v>
-      </c>
-      <c r="D18" t="s">
-        <v>315</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" t="s">
+        <v>32</v>
+      </c>
+      <c r="B19" t="s">
         <v>33</v>
       </c>
-      <c r="B19" t="s">
-        <v>34</v>
-      </c>
       <c r="C19" t="s">
+        <v>315</v>
+      </c>
+      <c r="D19" t="s">
         <v>316</v>
-      </c>
-      <c r="D19" t="s">
-        <v>317</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" t="s">
+        <v>34</v>
+      </c>
+      <c r="B20" t="s">
         <v>35</v>
       </c>
-      <c r="B20" t="s">
-        <v>36</v>
-      </c>
       <c r="C20" t="s">
+        <v>317</v>
+      </c>
+      <c r="D20" t="s">
         <v>318</v>
-      </c>
-      <c r="D20" t="s">
-        <v>319</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" t="s">
+        <v>36</v>
+      </c>
+      <c r="B21" t="s">
         <v>37</v>
       </c>
-      <c r="B21" t="s">
-        <v>38</v>
-      </c>
       <c r="C21" t="s">
+        <v>319</v>
+      </c>
+      <c r="D21" t="s">
         <v>320</v>
-      </c>
-      <c r="D21" t="s">
-        <v>321</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" t="s">
+        <v>38</v>
+      </c>
+      <c r="B22" t="s">
         <v>39</v>
       </c>
-      <c r="B22" t="s">
-        <v>40</v>
-      </c>
       <c r="C22" t="s">
+        <v>321</v>
+      </c>
+      <c r="D22" t="s">
         <v>322</v>
-      </c>
-      <c r="D22" t="s">
-        <v>323</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" t="s">
+        <v>40</v>
+      </c>
+      <c r="B23" t="s">
         <v>41</v>
       </c>
-      <c r="B23" t="s">
-        <v>42</v>
-      </c>
       <c r="C23" t="s">
+        <v>323</v>
+      </c>
+      <c r="D23" t="s">
         <v>324</v>
-      </c>
-      <c r="D23" t="s">
-        <v>325</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" t="s">
+        <v>42</v>
+      </c>
+      <c r="B24" t="s">
         <v>43</v>
       </c>
-      <c r="B24" t="s">
-        <v>44</v>
-      </c>
       <c r="C24" t="s">
+        <v>325</v>
+      </c>
+      <c r="D24" t="s">
         <v>326</v>
-      </c>
-      <c r="D24" t="s">
-        <v>327</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" t="s">
+        <v>44</v>
+      </c>
+      <c r="B25" t="s">
         <v>45</v>
       </c>
-      <c r="B25" t="s">
-        <v>46</v>
-      </c>
       <c r="C25" t="s">
+        <v>327</v>
+      </c>
+      <c r="D25" t="s">
         <v>328</v>
-      </c>
-      <c r="D25" t="s">
-        <v>329</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" t="s">
+        <v>46</v>
+      </c>
+      <c r="B26" t="s">
         <v>47</v>
       </c>
-      <c r="B26" t="s">
-        <v>48</v>
-      </c>
       <c r="C26" t="s">
+        <v>329</v>
+      </c>
+      <c r="D26" t="s">
         <v>330</v>
-      </c>
-      <c r="D26" t="s">
-        <v>331</v>
       </c>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" t="s">
+        <v>48</v>
+      </c>
+      <c r="B27" t="s">
         <v>49</v>
       </c>
-      <c r="B27" t="s">
-        <v>50</v>
-      </c>
       <c r="C27" t="s">
+        <v>331</v>
+      </c>
+      <c r="D27" t="s">
         <v>332</v>
-      </c>
-      <c r="D27" t="s">
-        <v>333</v>
       </c>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" t="s">
+        <v>277</v>
+      </c>
+      <c r="B28" t="s">
         <v>278</v>
       </c>
-      <c r="B28" t="s">
-        <v>279</v>
-      </c>
       <c r="C28" t="s">
+        <v>333</v>
+      </c>
+      <c r="D28" t="s">
         <v>334</v>
-      </c>
-      <c r="D28" t="s">
-        <v>335</v>
       </c>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" t="s">
+        <v>50</v>
+      </c>
+      <c r="B29" t="s">
         <v>51</v>
       </c>
-      <c r="B29" t="s">
-        <v>52</v>
-      </c>
       <c r="C29" t="s">
+        <v>335</v>
+      </c>
+      <c r="D29" t="s">
         <v>336</v>
-      </c>
-      <c r="D29" t="s">
-        <v>337</v>
       </c>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" t="s">
+        <v>52</v>
+      </c>
+      <c r="B30" t="s">
         <v>53</v>
       </c>
-      <c r="B30" t="s">
-        <v>54</v>
-      </c>
       <c r="C30" t="s">
+        <v>337</v>
+      </c>
+      <c r="D30" t="s">
         <v>338</v>
-      </c>
-      <c r="D30" t="s">
-        <v>339</v>
       </c>
     </row>
     <row r="31" spans="1:4">
       <c r="A31" t="s">
+        <v>54</v>
+      </c>
+      <c r="B31" t="s">
         <v>55</v>
       </c>
-      <c r="B31" t="s">
-        <v>56</v>
-      </c>
       <c r="C31" t="s">
+        <v>339</v>
+      </c>
+      <c r="D31" t="s">
         <v>340</v>
-      </c>
-      <c r="D31" t="s">
-        <v>341</v>
       </c>
     </row>
     <row r="32" spans="1:4">
       <c r="A32" t="s">
+        <v>56</v>
+      </c>
+      <c r="B32" t="s">
         <v>57</v>
       </c>
-      <c r="B32" t="s">
-        <v>58</v>
-      </c>
       <c r="C32" t="s">
+        <v>341</v>
+      </c>
+      <c r="D32" t="s">
         <v>342</v>
-      </c>
-      <c r="D32" t="s">
-        <v>343</v>
       </c>
     </row>
     <row r="33" spans="1:4">
       <c r="A33" t="s">
+        <v>58</v>
+      </c>
+      <c r="B33" t="s">
         <v>59</v>
       </c>
-      <c r="B33" t="s">
-        <v>60</v>
-      </c>
       <c r="C33" t="s">
+        <v>343</v>
+      </c>
+      <c r="D33" t="s">
         <v>344</v>
-      </c>
-      <c r="D33" t="s">
-        <v>345</v>
       </c>
     </row>
     <row r="34" spans="1:4">
       <c r="A34" t="s">
+        <v>60</v>
+      </c>
+      <c r="B34" t="s">
         <v>61</v>
       </c>
-      <c r="B34" t="s">
-        <v>62</v>
-      </c>
       <c r="C34" t="s">
+        <v>345</v>
+      </c>
+      <c r="D34" t="s">
         <v>346</v>
-      </c>
-      <c r="D34" t="s">
-        <v>347</v>
       </c>
     </row>
     <row r="35" spans="1:4">
       <c r="A35" t="s">
+        <v>62</v>
+      </c>
+      <c r="B35" t="s">
         <v>63</v>
       </c>
-      <c r="B35" t="s">
-        <v>64</v>
-      </c>
       <c r="C35" t="s">
+        <v>347</v>
+      </c>
+      <c r="D35" t="s">
         <v>348</v>
-      </c>
-      <c r="D35" t="s">
-        <v>349</v>
       </c>
     </row>
     <row r="36" spans="1:4">
       <c r="A36" t="s">
+        <v>64</v>
+      </c>
+      <c r="B36" t="s">
         <v>65</v>
       </c>
-      <c r="B36" t="s">
-        <v>66</v>
-      </c>
       <c r="C36" t="s">
+        <v>349</v>
+      </c>
+      <c r="D36" t="s">
         <v>350</v>
-      </c>
-      <c r="D36" t="s">
-        <v>351</v>
       </c>
     </row>
     <row r="37" spans="1:4">
       <c r="A37" t="s">
+        <v>66</v>
+      </c>
+      <c r="B37" t="s">
         <v>67</v>
       </c>
-      <c r="B37" t="s">
-        <v>68</v>
-      </c>
       <c r="C37" t="s">
+        <v>351</v>
+      </c>
+      <c r="D37" t="s">
         <v>352</v>
-      </c>
-      <c r="D37" t="s">
-        <v>353</v>
       </c>
     </row>
     <row r="38" spans="1:4">
       <c r="A38" t="s">
+        <v>68</v>
+      </c>
+      <c r="B38" t="s">
         <v>69</v>
       </c>
-      <c r="B38" t="s">
-        <v>70</v>
-      </c>
       <c r="C38" t="s">
+        <v>353</v>
+      </c>
+      <c r="D38" t="s">
         <v>354</v>
-      </c>
-      <c r="D38" t="s">
-        <v>355</v>
       </c>
     </row>
     <row r="39" spans="1:4">
       <c r="A39" t="s">
+        <v>70</v>
+      </c>
+      <c r="B39" t="s">
         <v>71</v>
       </c>
-      <c r="B39" t="s">
-        <v>72</v>
-      </c>
       <c r="C39" t="s">
+        <v>355</v>
+      </c>
+      <c r="D39" t="s">
         <v>356</v>
-      </c>
-      <c r="D39" t="s">
-        <v>357</v>
       </c>
     </row>
     <row r="40" spans="1:4">
       <c r="A40" t="s">
+        <v>72</v>
+      </c>
+      <c r="B40" t="s">
         <v>73</v>
       </c>
-      <c r="B40" t="s">
-        <v>74</v>
-      </c>
       <c r="C40" t="s">
+        <v>357</v>
+      </c>
+      <c r="D40" t="s">
         <v>358</v>
-      </c>
-      <c r="D40" t="s">
-        <v>359</v>
       </c>
     </row>
     <row r="41" spans="1:4">
       <c r="A41" t="s">
+        <v>74</v>
+      </c>
+      <c r="B41" t="s">
         <v>75</v>
       </c>
-      <c r="B41" t="s">
-        <v>76</v>
-      </c>
       <c r="C41" t="s">
+        <v>359</v>
+      </c>
+      <c r="D41" t="s">
         <v>360</v>
-      </c>
-      <c r="D41" t="s">
-        <v>361</v>
       </c>
     </row>
     <row r="42" spans="1:4">
       <c r="A42" t="s">
+        <v>76</v>
+      </c>
+      <c r="B42" t="s">
         <v>77</v>
       </c>
-      <c r="B42" t="s">
-        <v>78</v>
-      </c>
       <c r="C42" t="s">
+        <v>361</v>
+      </c>
+      <c r="D42" t="s">
         <v>362</v>
-      </c>
-      <c r="D42" t="s">
-        <v>363</v>
       </c>
     </row>
     <row r="43" spans="1:4">
       <c r="A43" t="s">
+        <v>78</v>
+      </c>
+      <c r="B43" t="s">
         <v>79</v>
       </c>
-      <c r="B43" t="s">
-        <v>80</v>
-      </c>
       <c r="C43" t="s">
+        <v>363</v>
+      </c>
+      <c r="D43" t="s">
         <v>364</v>
-      </c>
-      <c r="D43" t="s">
-        <v>365</v>
       </c>
     </row>
     <row r="44" spans="1:4">
       <c r="A44" t="s">
+        <v>80</v>
+      </c>
+      <c r="B44" t="s">
         <v>81</v>
       </c>
-      <c r="B44" t="s">
-        <v>82</v>
-      </c>
       <c r="C44" t="s">
+        <v>365</v>
+      </c>
+      <c r="D44" t="s">
         <v>366</v>
-      </c>
-      <c r="D44" t="s">
-        <v>367</v>
       </c>
     </row>
     <row r="45" spans="1:4">
       <c r="A45" t="s">
+        <v>82</v>
+      </c>
+      <c r="B45" t="s">
         <v>83</v>
       </c>
-      <c r="B45" t="s">
-        <v>84</v>
-      </c>
       <c r="C45" t="s">
+        <v>367</v>
+      </c>
+      <c r="D45" t="s">
         <v>368</v>
-      </c>
-      <c r="D45" t="s">
-        <v>369</v>
       </c>
     </row>
     <row r="46" spans="1:4">
       <c r="A46" t="s">
+        <v>84</v>
+      </c>
+      <c r="B46" t="s">
         <v>85</v>
       </c>
-      <c r="B46" t="s">
-        <v>86</v>
-      </c>
       <c r="C46" t="s">
+        <v>369</v>
+      </c>
+      <c r="D46" t="s">
         <v>370</v>
-      </c>
-      <c r="D46" t="s">
-        <v>371</v>
       </c>
     </row>
     <row r="47" spans="1:4">
       <c r="A47" t="s">
+        <v>86</v>
+      </c>
+      <c r="B47" t="s">
         <v>87</v>
       </c>
-      <c r="B47" t="s">
-        <v>88</v>
-      </c>
       <c r="C47" t="s">
+        <v>371</v>
+      </c>
+      <c r="D47" t="s">
         <v>372</v>
-      </c>
-      <c r="D47" t="s">
-        <v>373</v>
       </c>
     </row>
     <row r="48" spans="1:4">
       <c r="A48" t="s">
+        <v>88</v>
+      </c>
+      <c r="B48" t="s">
         <v>89</v>
       </c>
-      <c r="B48" t="s">
-        <v>90</v>
-      </c>
       <c r="C48" t="s">
+        <v>373</v>
+      </c>
+      <c r="D48" t="s">
         <v>374</v>
-      </c>
-      <c r="D48" t="s">
-        <v>375</v>
       </c>
     </row>
     <row r="49" spans="1:4">
       <c r="A49" t="s">
+        <v>90</v>
+      </c>
+      <c r="B49" t="s">
         <v>91</v>
       </c>
-      <c r="B49" t="s">
-        <v>92</v>
-      </c>
       <c r="C49" t="s">
+        <v>375</v>
+      </c>
+      <c r="D49" t="s">
         <v>376</v>
-      </c>
-      <c r="D49" t="s">
-        <v>377</v>
       </c>
     </row>
     <row r="50" spans="1:4">
       <c r="A50" t="s">
+        <v>92</v>
+      </c>
+      <c r="B50" t="s">
         <v>93</v>
       </c>
-      <c r="B50" t="s">
-        <v>94</v>
-      </c>
       <c r="C50" t="s">
+        <v>377</v>
+      </c>
+      <c r="D50" t="s">
         <v>378</v>
-      </c>
-      <c r="D50" t="s">
-        <v>379</v>
       </c>
     </row>
     <row r="51" spans="1:4">
       <c r="A51" t="s">
+        <v>94</v>
+      </c>
+      <c r="B51" t="s">
         <v>95</v>
       </c>
-      <c r="B51" t="s">
-        <v>96</v>
-      </c>
       <c r="C51" t="s">
+        <v>379</v>
+      </c>
+      <c r="D51" t="s">
         <v>380</v>
-      </c>
-      <c r="D51" t="s">
-        <v>381</v>
       </c>
     </row>
     <row r="52" spans="1:4">
       <c r="A52" t="s">
+        <v>96</v>
+      </c>
+      <c r="B52" t="s">
         <v>97</v>
       </c>
-      <c r="B52" t="s">
-        <v>98</v>
-      </c>
       <c r="C52" t="s">
+        <v>381</v>
+      </c>
+      <c r="D52" t="s">
         <v>382</v>
-      </c>
-      <c r="D52" t="s">
-        <v>383</v>
       </c>
     </row>
     <row r="53" spans="1:4">
       <c r="A53" t="s">
+        <v>98</v>
+      </c>
+      <c r="B53" t="s">
         <v>99</v>
       </c>
-      <c r="B53" t="s">
-        <v>100</v>
-      </c>
       <c r="C53" t="s">
+        <v>383</v>
+      </c>
+      <c r="D53" t="s">
         <v>384</v>
-      </c>
-      <c r="D53" t="s">
-        <v>385</v>
       </c>
     </row>
     <row r="54" spans="1:4">
       <c r="A54" t="s">
+        <v>100</v>
+      </c>
+      <c r="B54" t="s">
         <v>101</v>
       </c>
-      <c r="B54" t="s">
-        <v>102</v>
-      </c>
       <c r="C54" t="s">
+        <v>385</v>
+      </c>
+      <c r="D54" t="s">
         <v>386</v>
-      </c>
-      <c r="D54" t="s">
-        <v>387</v>
       </c>
     </row>
     <row r="55" spans="1:4">
       <c r="A55" t="s">
+        <v>102</v>
+      </c>
+      <c r="B55" t="s">
         <v>103</v>
       </c>
-      <c r="B55" t="s">
-        <v>104</v>
-      </c>
       <c r="C55" t="s">
+        <v>387</v>
+      </c>
+      <c r="D55" t="s">
         <v>388</v>
-      </c>
-      <c r="D55" t="s">
-        <v>389</v>
       </c>
     </row>
     <row r="56" spans="1:4">
       <c r="A56" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B56" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C56" t="s">
+        <v>389</v>
+      </c>
+      <c r="D56" t="s">
         <v>390</v>
-      </c>
-      <c r="D56" t="s">
-        <v>391</v>
       </c>
     </row>
     <row r="57" spans="1:4">
       <c r="A57" t="s">
+        <v>105</v>
+      </c>
+      <c r="B57" t="s">
         <v>106</v>
       </c>
-      <c r="B57" t="s">
-        <v>107</v>
-      </c>
       <c r="C57" t="s">
+        <v>391</v>
+      </c>
+      <c r="D57" t="s">
         <v>392</v>
-      </c>
-      <c r="D57" t="s">
-        <v>393</v>
       </c>
     </row>
     <row r="58" spans="1:4">
       <c r="A58" t="s">
+        <v>107</v>
+      </c>
+      <c r="B58" t="s">
         <v>108</v>
       </c>
-      <c r="B58" t="s">
-        <v>109</v>
-      </c>
       <c r="C58" t="s">
+        <v>393</v>
+      </c>
+      <c r="D58" t="s">
         <v>394</v>
-      </c>
-      <c r="D58" t="s">
-        <v>395</v>
       </c>
     </row>
     <row r="59" spans="1:4">
       <c r="A59" t="s">
+        <v>109</v>
+      </c>
+      <c r="B59" t="s">
         <v>110</v>
       </c>
-      <c r="B59" t="s">
-        <v>111</v>
-      </c>
       <c r="C59" t="s">
+        <v>395</v>
+      </c>
+      <c r="D59" t="s">
         <v>396</v>
-      </c>
-      <c r="D59" t="s">
-        <v>397</v>
       </c>
     </row>
     <row r="60" spans="1:4">
       <c r="A60" t="s">
+        <v>111</v>
+      </c>
+      <c r="B60" t="s">
         <v>112</v>
       </c>
-      <c r="B60" t="s">
-        <v>113</v>
-      </c>
       <c r="C60" t="s">
+        <v>397</v>
+      </c>
+      <c r="D60" t="s">
         <v>398</v>
-      </c>
-      <c r="D60" t="s">
-        <v>399</v>
       </c>
     </row>
     <row r="61" spans="1:4">
       <c r="A61" t="s">
+        <v>113</v>
+      </c>
+      <c r="B61" t="s">
         <v>114</v>
       </c>
-      <c r="B61" t="s">
-        <v>115</v>
-      </c>
       <c r="C61" t="s">
+        <v>399</v>
+      </c>
+      <c r="D61" t="s">
         <v>400</v>
-      </c>
-      <c r="D61" t="s">
-        <v>401</v>
       </c>
     </row>
     <row r="62" spans="1:4">
       <c r="A62" t="s">
+        <v>115</v>
+      </c>
+      <c r="B62" t="s">
         <v>116</v>
       </c>
-      <c r="B62" t="s">
-        <v>117</v>
-      </c>
       <c r="C62" t="s">
+        <v>401</v>
+      </c>
+      <c r="D62" t="s">
         <v>402</v>
-      </c>
-      <c r="D62" t="s">
-        <v>403</v>
       </c>
     </row>
     <row r="63" spans="1:4">
       <c r="A63" t="s">
+        <v>117</v>
+      </c>
+      <c r="B63" t="s">
         <v>118</v>
       </c>
-      <c r="B63" t="s">
-        <v>119</v>
-      </c>
       <c r="C63" t="s">
+        <v>403</v>
+      </c>
+      <c r="D63" t="s">
         <v>404</v>
-      </c>
-      <c r="D63" t="s">
-        <v>405</v>
       </c>
     </row>
     <row r="64" spans="1:4">
       <c r="A64" t="s">
+        <v>119</v>
+      </c>
+      <c r="B64" t="s">
         <v>120</v>
       </c>
-      <c r="B64" t="s">
-        <v>121</v>
-      </c>
       <c r="C64" t="s">
+        <v>405</v>
+      </c>
+      <c r="D64" t="s">
         <v>406</v>
-      </c>
-      <c r="D64" t="s">
-        <v>407</v>
       </c>
     </row>
     <row r="65" spans="1:4">
       <c r="A65" t="s">
+        <v>121</v>
+      </c>
+      <c r="B65" t="s">
         <v>122</v>
       </c>
-      <c r="B65" t="s">
-        <v>123</v>
-      </c>
       <c r="C65" t="s">
+        <v>407</v>
+      </c>
+      <c r="D65" t="s">
         <v>408</v>
-      </c>
-      <c r="D65" t="s">
-        <v>409</v>
       </c>
     </row>
     <row r="66" spans="1:4">
       <c r="A66" t="s">
+        <v>123</v>
+      </c>
+      <c r="B66" t="s">
         <v>124</v>
       </c>
-      <c r="B66" t="s">
-        <v>125</v>
-      </c>
       <c r="C66" t="s">
+        <v>409</v>
+      </c>
+      <c r="D66" t="s">
         <v>410</v>
-      </c>
-      <c r="D66" t="s">
-        <v>411</v>
       </c>
     </row>
     <row r="67" spans="1:4">
       <c r="A67" t="s">
+        <v>125</v>
+      </c>
+      <c r="B67" t="s">
         <v>126</v>
       </c>
-      <c r="B67" t="s">
-        <v>127</v>
-      </c>
       <c r="C67" t="s">
+        <v>411</v>
+      </c>
+      <c r="D67" t="s">
         <v>412</v>
-      </c>
-      <c r="D67" t="s">
-        <v>413</v>
       </c>
     </row>
     <row r="68" spans="1:4">
       <c r="A68" t="s">
+        <v>127</v>
+      </c>
+      <c r="B68" t="s">
         <v>128</v>
       </c>
-      <c r="B68" t="s">
-        <v>129</v>
-      </c>
       <c r="C68" t="s">
+        <v>413</v>
+      </c>
+      <c r="D68" t="s">
         <v>414</v>
-      </c>
-      <c r="D68" t="s">
-        <v>415</v>
       </c>
     </row>
     <row r="69" spans="1:4">
       <c r="A69" t="s">
+        <v>129</v>
+      </c>
+      <c r="B69" t="s">
         <v>130</v>
       </c>
-      <c r="B69" t="s">
-        <v>131</v>
-      </c>
       <c r="C69" t="s">
+        <v>415</v>
+      </c>
+      <c r="D69" t="s">
         <v>416</v>
-      </c>
-      <c r="D69" t="s">
-        <v>417</v>
       </c>
     </row>
     <row r="70" spans="1:4">
       <c r="A70" t="s">
+        <v>131</v>
+      </c>
+      <c r="B70" t="s">
         <v>132</v>
       </c>
-      <c r="B70" t="s">
-        <v>133</v>
-      </c>
       <c r="C70" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="D70" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
     </row>
     <row r="71" spans="1:4">
       <c r="A71" t="s">
+        <v>133</v>
+      </c>
+      <c r="B71" t="s">
         <v>134</v>
       </c>
-      <c r="B71" t="s">
-        <v>135</v>
-      </c>
       <c r="C71" t="s">
+        <v>424</v>
+      </c>
+      <c r="D71" t="s">
         <v>425</v>
-      </c>
-      <c r="D71" t="s">
-        <v>426</v>
       </c>
     </row>
     <row r="72" spans="1:4">
       <c r="A72" t="s">
+        <v>135</v>
+      </c>
+      <c r="B72" t="s">
         <v>136</v>
       </c>
-      <c r="B72" t="s">
-        <v>137</v>
-      </c>
       <c r="C72" t="s">
+        <v>426</v>
+      </c>
+      <c r="D72" t="s">
         <v>427</v>
-      </c>
-      <c r="D72" t="s">
-        <v>428</v>
       </c>
     </row>
     <row r="73" spans="1:4">
       <c r="A73" t="s">
+        <v>137</v>
+      </c>
+      <c r="B73" t="s">
         <v>138</v>
       </c>
-      <c r="B73" t="s">
-        <v>139</v>
-      </c>
       <c r="C73" t="s">
+        <v>428</v>
+      </c>
+      <c r="D73" t="s">
         <v>429</v>
-      </c>
-      <c r="D73" t="s">
-        <v>430</v>
       </c>
     </row>
     <row r="74" spans="1:4">
       <c r="A74" t="s">
+        <v>139</v>
+      </c>
+      <c r="B74" t="s">
         <v>140</v>
       </c>
-      <c r="B74" t="s">
-        <v>141</v>
-      </c>
       <c r="C74" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="D74" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
     </row>
     <row r="75" spans="1:4">
       <c r="A75" t="s">
+        <v>141</v>
+      </c>
+      <c r="B75" t="s">
         <v>142</v>
       </c>
-      <c r="B75" t="s">
-        <v>143</v>
-      </c>
       <c r="C75" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="D75" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
     </row>
     <row r="76" spans="1:4">
       <c r="A76" t="s">
+        <v>143</v>
+      </c>
+      <c r="B76" t="s">
         <v>144</v>
       </c>
-      <c r="B76" t="s">
-        <v>145</v>
-      </c>
       <c r="C76" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="D76" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
     </row>
     <row r="77" spans="1:4">
       <c r="A77" t="s">
+        <v>145</v>
+      </c>
+      <c r="B77" t="s">
         <v>146</v>
       </c>
-      <c r="B77" t="s">
-        <v>147</v>
-      </c>
       <c r="C77" t="s">
+        <v>433</v>
+      </c>
+      <c r="D77" t="s">
         <v>434</v>
-      </c>
-      <c r="D77" t="s">
-        <v>435</v>
       </c>
     </row>
     <row r="78" spans="1:4">
       <c r="A78" t="s">
+        <v>147</v>
+      </c>
+      <c r="B78" t="s">
         <v>148</v>
       </c>
-      <c r="B78" t="s">
-        <v>149</v>
-      </c>
       <c r="C78" t="s">
+        <v>435</v>
+      </c>
+      <c r="D78" t="s">
         <v>436</v>
-      </c>
-      <c r="D78" t="s">
-        <v>437</v>
       </c>
     </row>
     <row r="79" spans="1:4">
       <c r="A79" t="s">
+        <v>149</v>
+      </c>
+      <c r="B79" t="s">
         <v>150</v>
       </c>
-      <c r="B79" t="s">
-        <v>151</v>
-      </c>
       <c r="C79" t="s">
+        <v>437</v>
+      </c>
+      <c r="D79" t="s">
         <v>438</v>
-      </c>
-      <c r="D79" t="s">
-        <v>439</v>
       </c>
     </row>
     <row r="80" spans="1:4">
       <c r="A80" t="s">
+        <v>151</v>
+      </c>
+      <c r="B80" t="s">
         <v>152</v>
       </c>
-      <c r="B80" t="s">
-        <v>153</v>
-      </c>
       <c r="C80" t="s">
+        <v>439</v>
+      </c>
+      <c r="D80" t="s">
         <v>440</v>
-      </c>
-      <c r="D80" t="s">
-        <v>441</v>
       </c>
     </row>
     <row r="81" spans="1:4">
       <c r="A81" t="s">
+        <v>153</v>
+      </c>
+      <c r="B81" t="s">
         <v>154</v>
       </c>
-      <c r="B81" t="s">
-        <v>155</v>
-      </c>
       <c r="C81" t="s">
+        <v>441</v>
+      </c>
+      <c r="D81" t="s">
         <v>442</v>
-      </c>
-      <c r="D81" t="s">
-        <v>443</v>
       </c>
     </row>
     <row r="82" spans="1:4">
       <c r="A82" t="s">
+        <v>155</v>
+      </c>
+      <c r="B82" t="s">
         <v>156</v>
       </c>
-      <c r="B82" t="s">
-        <v>157</v>
-      </c>
       <c r="C82" t="s">
+        <v>443</v>
+      </c>
+      <c r="D82" t="s">
         <v>444</v>
-      </c>
-      <c r="D82" t="s">
-        <v>445</v>
       </c>
     </row>
     <row r="83" spans="1:4">
       <c r="A83" t="s">
+        <v>157</v>
+      </c>
+      <c r="B83" t="s">
         <v>158</v>
       </c>
-      <c r="B83" t="s">
-        <v>159</v>
-      </c>
       <c r="C83" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="D83" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="84" spans="1:4">
       <c r="A84" t="s">
+        <v>159</v>
+      </c>
+      <c r="B84" t="s">
         <v>160</v>
       </c>
-      <c r="B84" t="s">
-        <v>161</v>
-      </c>
       <c r="C84" t="s">
+        <v>446</v>
+      </c>
+      <c r="D84" t="s">
         <v>447</v>
-      </c>
-      <c r="D84" t="s">
-        <v>448</v>
       </c>
     </row>
     <row r="85" spans="1:4">
       <c r="A85" t="s">
+        <v>161</v>
+      </c>
+      <c r="B85" t="s">
         <v>162</v>
       </c>
-      <c r="B85" t="s">
-        <v>163</v>
-      </c>
       <c r="C85" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="D85" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="86" spans="1:4">
       <c r="A86" t="s">
+        <v>163</v>
+      </c>
+      <c r="B86" t="s">
         <v>164</v>
       </c>
-      <c r="B86" t="s">
-        <v>165</v>
-      </c>
       <c r="C86" t="s">
+        <v>454</v>
+      </c>
+      <c r="D86" t="s">
         <v>455</v>
-      </c>
-      <c r="D86" t="s">
-        <v>456</v>
       </c>
     </row>
     <row r="87" spans="1:4">
       <c r="A87" t="s">
+        <v>165</v>
+      </c>
+      <c r="B87" t="s">
         <v>166</v>
       </c>
-      <c r="B87" t="s">
-        <v>167</v>
-      </c>
       <c r="C87" t="s">
+        <v>456</v>
+      </c>
+      <c r="D87" t="s">
         <v>457</v>
-      </c>
-      <c r="D87" t="s">
-        <v>458</v>
       </c>
     </row>
     <row r="88" spans="1:4">
       <c r="A88" t="s">
+        <v>167</v>
+      </c>
+      <c r="B88" t="s">
         <v>168</v>
       </c>
-      <c r="B88" t="s">
-        <v>169</v>
-      </c>
       <c r="C88" t="s">
+        <v>458</v>
+      </c>
+      <c r="D88" t="s">
         <v>459</v>
-      </c>
-      <c r="D88" t="s">
-        <v>460</v>
       </c>
     </row>
     <row r="89" spans="1:4">
       <c r="A89" t="s">
+        <v>169</v>
+      </c>
+      <c r="B89" t="s">
         <v>170</v>
       </c>
-      <c r="B89" t="s">
-        <v>171</v>
-      </c>
       <c r="C89" t="s">
+        <v>460</v>
+      </c>
+      <c r="D89" t="s">
         <v>461</v>
-      </c>
-      <c r="D89" t="s">
-        <v>462</v>
       </c>
     </row>
     <row r="90" spans="1:4">
       <c r="A90" t="s">
+        <v>171</v>
+      </c>
+      <c r="B90" t="s">
         <v>172</v>
       </c>
-      <c r="B90" t="s">
-        <v>173</v>
-      </c>
       <c r="C90" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="D90" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
     </row>
     <row r="91" spans="1:4">
       <c r="A91" t="s">
+        <v>173</v>
+      </c>
+      <c r="B91" t="s">
         <v>174</v>
       </c>
-      <c r="B91" t="s">
-        <v>175</v>
-      </c>
       <c r="C91" t="s">
+        <v>463</v>
+      </c>
+      <c r="D91" t="s">
         <v>464</v>
-      </c>
-      <c r="D91" t="s">
-        <v>465</v>
       </c>
     </row>
     <row r="92" spans="1:4">
       <c r="A92" t="s">
+        <v>175</v>
+      </c>
+      <c r="B92" t="s">
         <v>176</v>
       </c>
-      <c r="B92" t="s">
-        <v>177</v>
-      </c>
       <c r="C92" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="D92" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
     <row r="93" spans="1:4">
       <c r="A93" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B93" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C93" t="s">
+        <v>466</v>
+      </c>
+      <c r="D93" t="s">
         <v>467</v>
-      </c>
-      <c r="D93" t="s">
-        <v>468</v>
       </c>
     </row>
     <row r="94" spans="1:4">
       <c r="A94" t="s">
+        <v>178</v>
+      </c>
+      <c r="B94" t="s">
         <v>179</v>
       </c>
-      <c r="B94" t="s">
-        <v>180</v>
-      </c>
       <c r="C94" t="s">
+        <v>468</v>
+      </c>
+      <c r="D94" t="s">
         <v>469</v>
-      </c>
-      <c r="D94" t="s">
-        <v>470</v>
       </c>
     </row>
     <row r="95" spans="1:4">
       <c r="A95" t="s">
+        <v>180</v>
+      </c>
+      <c r="B95" t="s">
         <v>181</v>
       </c>
-      <c r="B95" t="s">
-        <v>182</v>
-      </c>
       <c r="C95" t="s">
+        <v>470</v>
+      </c>
+      <c r="D95" t="s">
         <v>471</v>
-      </c>
-      <c r="D95" t="s">
-        <v>472</v>
       </c>
     </row>
     <row r="96" spans="1:4">
       <c r="A96" t="s">
+        <v>182</v>
+      </c>
+      <c r="B96" t="s">
         <v>183</v>
       </c>
-      <c r="B96" t="s">
-        <v>184</v>
-      </c>
       <c r="C96" t="s">
+        <v>472</v>
+      </c>
+      <c r="D96" t="s">
         <v>473</v>
-      </c>
-      <c r="D96" t="s">
-        <v>474</v>
       </c>
     </row>
     <row r="97" spans="1:4">
       <c r="A97" t="s">
+        <v>184</v>
+      </c>
+      <c r="B97" t="s">
         <v>185</v>
       </c>
-      <c r="B97" t="s">
-        <v>186</v>
-      </c>
       <c r="C97" t="s">
+        <v>474</v>
+      </c>
+      <c r="D97" t="s">
         <v>475</v>
-      </c>
-      <c r="D97" t="s">
-        <v>476</v>
       </c>
     </row>
     <row r="98" spans="1:4">
       <c r="A98" t="s">
+        <v>186</v>
+      </c>
+      <c r="B98" t="s">
         <v>187</v>
       </c>
-      <c r="B98" t="s">
-        <v>188</v>
-      </c>
       <c r="C98" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="D98" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
     <row r="99" spans="1:4">
       <c r="A99" t="s">
+        <v>188</v>
+      </c>
+      <c r="B99" t="s">
         <v>189</v>
       </c>
-      <c r="B99" t="s">
-        <v>190</v>
-      </c>
       <c r="C99" t="s">
+        <v>477</v>
+      </c>
+      <c r="D99" t="s">
         <v>478</v>
-      </c>
-      <c r="D99" t="s">
-        <v>479</v>
       </c>
     </row>
     <row r="100" spans="1:4">
       <c r="A100" t="s">
+        <v>190</v>
+      </c>
+      <c r="B100" t="s">
         <v>191</v>
       </c>
-      <c r="B100" t="s">
-        <v>192</v>
-      </c>
       <c r="C100" t="s">
+        <v>479</v>
+      </c>
+      <c r="D100" t="s">
         <v>480</v>
-      </c>
-      <c r="D100" t="s">
-        <v>481</v>
       </c>
     </row>
     <row r="101" spans="1:4">
       <c r="A101" t="s">
+        <v>192</v>
+      </c>
+      <c r="B101" t="s">
         <v>193</v>
       </c>
-      <c r="B101" t="s">
-        <v>194</v>
-      </c>
       <c r="C101" t="s">
+        <v>481</v>
+      </c>
+      <c r="D101" t="s">
         <v>482</v>
-      </c>
-      <c r="D101" t="s">
-        <v>483</v>
       </c>
     </row>
     <row r="102" spans="1:4">
       <c r="A102" t="s">
+        <v>194</v>
+      </c>
+      <c r="B102" t="s">
         <v>195</v>
       </c>
-      <c r="B102" t="s">
-        <v>196</v>
-      </c>
       <c r="C102" t="s">
+        <v>483</v>
+      </c>
+      <c r="D102" t="s">
         <v>484</v>
-      </c>
-      <c r="D102" t="s">
-        <v>485</v>
       </c>
     </row>
     <row r="103" spans="1:4">
       <c r="A103" t="s">
+        <v>196</v>
+      </c>
+      <c r="B103" t="s">
         <v>197</v>
       </c>
-      <c r="B103" t="s">
-        <v>198</v>
-      </c>
       <c r="C103" t="s">
+        <v>485</v>
+      </c>
+      <c r="D103" t="s">
         <v>486</v>
-      </c>
-      <c r="D103" t="s">
-        <v>487</v>
       </c>
     </row>
     <row r="104" spans="1:4">
       <c r="A104" t="s">
+        <v>198</v>
+      </c>
+      <c r="B104" t="s">
         <v>199</v>
       </c>
-      <c r="B104" t="s">
-        <v>200</v>
-      </c>
       <c r="C104" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="D104" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
     </row>
     <row r="105" spans="1:4">
       <c r="A105" t="s">
+        <v>200</v>
+      </c>
+      <c r="B105" t="s">
         <v>201</v>
       </c>
-      <c r="B105" t="s">
-        <v>202</v>
-      </c>
       <c r="C105" t="s">
+        <v>488</v>
+      </c>
+      <c r="D105" t="s">
         <v>489</v>
-      </c>
-      <c r="D105" t="s">
-        <v>490</v>
       </c>
     </row>
     <row r="106" spans="1:4">
       <c r="A106" t="s">
+        <v>202</v>
+      </c>
+      <c r="B106" t="s">
         <v>203</v>
       </c>
-      <c r="B106" t="s">
-        <v>204</v>
-      </c>
       <c r="C106" t="s">
+        <v>490</v>
+      </c>
+      <c r="D106" t="s">
         <v>491</v>
-      </c>
-      <c r="D106" t="s">
-        <v>492</v>
       </c>
     </row>
     <row r="107" spans="1:4">
       <c r="A107" t="s">
+        <v>204</v>
+      </c>
+      <c r="B107" t="s">
         <v>205</v>
       </c>
-      <c r="B107" t="s">
-        <v>206</v>
-      </c>
       <c r="C107" t="s">
+        <v>492</v>
+      </c>
+      <c r="D107" t="s">
         <v>493</v>
-      </c>
-      <c r="D107" t="s">
-        <v>494</v>
       </c>
     </row>
     <row r="108" spans="1:4">
       <c r="A108" t="s">
+        <v>206</v>
+      </c>
+      <c r="B108" t="s">
         <v>207</v>
       </c>
-      <c r="B108" t="s">
-        <v>208</v>
-      </c>
       <c r="C108" t="s">
+        <v>494</v>
+      </c>
+      <c r="D108" t="s">
         <v>495</v>
-      </c>
-      <c r="D108" t="s">
-        <v>496</v>
       </c>
     </row>
     <row r="109" spans="1:4">
       <c r="A109" t="s">
+        <v>208</v>
+      </c>
+      <c r="B109" t="s">
         <v>209</v>
       </c>
-      <c r="B109" t="s">
-        <v>210</v>
-      </c>
       <c r="C109" t="s">
+        <v>496</v>
+      </c>
+      <c r="D109" t="s">
         <v>497</v>
-      </c>
-      <c r="D109" t="s">
-        <v>498</v>
       </c>
     </row>
     <row r="110" spans="1:4">
       <c r="A110" t="s">
+        <v>210</v>
+      </c>
+      <c r="B110" t="s">
         <v>211</v>
       </c>
-      <c r="B110" t="s">
-        <v>212</v>
-      </c>
       <c r="C110" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="D110" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
     </row>
     <row r="111" spans="1:4">
       <c r="A111" t="s">
+        <v>212</v>
+      </c>
+      <c r="B111" t="s">
         <v>213</v>
       </c>
-      <c r="B111" t="s">
-        <v>214</v>
-      </c>
       <c r="C111" t="s">
+        <v>499</v>
+      </c>
+      <c r="D111" t="s">
         <v>500</v>
-      </c>
-      <c r="D111" t="s">
-        <v>501</v>
       </c>
     </row>
     <row r="112" spans="1:4">
       <c r="A112" t="s">
+        <v>214</v>
+      </c>
+      <c r="B112" t="s">
         <v>215</v>
       </c>
-      <c r="B112" t="s">
-        <v>216</v>
-      </c>
       <c r="C112" t="s">
+        <v>501</v>
+      </c>
+      <c r="D112" t="s">
         <v>502</v>
-      </c>
-      <c r="D112" t="s">
-        <v>503</v>
       </c>
     </row>
     <row r="113" spans="1:4">
       <c r="A113" t="s">
+        <v>216</v>
+      </c>
+      <c r="B113" t="s">
         <v>217</v>
       </c>
-      <c r="B113" t="s">
-        <v>218</v>
-      </c>
       <c r="C113" t="s">
+        <v>503</v>
+      </c>
+      <c r="D113" t="s">
         <v>504</v>
-      </c>
-      <c r="D113" t="s">
-        <v>505</v>
       </c>
     </row>
     <row r="114" spans="1:4">
       <c r="A114" t="s">
+        <v>218</v>
+      </c>
+      <c r="B114" t="s">
         <v>219</v>
       </c>
-      <c r="B114" t="s">
-        <v>220</v>
-      </c>
       <c r="C114" t="s">
+        <v>505</v>
+      </c>
+      <c r="D114" t="s">
         <v>506</v>
-      </c>
-      <c r="D114" t="s">
-        <v>507</v>
       </c>
     </row>
     <row r="115" spans="1:4">
       <c r="A115" t="s">
+        <v>220</v>
+      </c>
+      <c r="B115" t="s">
         <v>221</v>
-      </c>
-      <c r="B115" t="s">
-        <v>222</v>
       </c>
     </row>
     <row r="116" spans="1:4">
       <c r="A116" t="s">
+        <v>222</v>
+      </c>
+      <c r="B116" t="s">
         <v>223</v>
-      </c>
-      <c r="B116" t="s">
-        <v>224</v>
       </c>
     </row>
     <row r="117" spans="1:4">
       <c r="A117" t="s">
+        <v>224</v>
+      </c>
+      <c r="B117" t="s">
         <v>225</v>
-      </c>
-      <c r="B117" t="s">
-        <v>226</v>
       </c>
     </row>
     <row r="118" spans="1:4">
       <c r="A118" t="s">
+        <v>226</v>
+      </c>
+      <c r="B118" t="s">
         <v>227</v>
-      </c>
-      <c r="B118" t="s">
-        <v>228</v>
       </c>
     </row>
     <row r="119" spans="1:4">
       <c r="A119" t="s">
+        <v>228</v>
+      </c>
+      <c r="B119" t="s">
         <v>229</v>
-      </c>
-      <c r="B119" t="s">
-        <v>230</v>
       </c>
     </row>
     <row r="120" spans="1:4">
       <c r="A120" t="s">
+        <v>230</v>
+      </c>
+      <c r="B120" t="s">
         <v>231</v>
-      </c>
-      <c r="B120" t="s">
-        <v>232</v>
       </c>
     </row>
     <row r="121" spans="1:4">
       <c r="A121" t="s">
+        <v>232</v>
+      </c>
+      <c r="B121" t="s">
         <v>233</v>
-      </c>
-      <c r="B121" t="s">
-        <v>234</v>
       </c>
     </row>
     <row r="122" spans="1:4">
       <c r="A122" t="s">
+        <v>234</v>
+      </c>
+      <c r="B122" t="s">
         <v>235</v>
-      </c>
-      <c r="B122" t="s">
-        <v>236</v>
       </c>
     </row>
     <row r="123" spans="1:4">
       <c r="A123" t="s">
+        <v>236</v>
+      </c>
+      <c r="B123" t="s">
         <v>237</v>
-      </c>
-      <c r="B123" t="s">
-        <v>238</v>
       </c>
     </row>
     <row r="124" spans="1:4">
       <c r="A124" t="s">
+        <v>238</v>
+      </c>
+      <c r="B124" t="s">
         <v>239</v>
-      </c>
-      <c r="B124" t="s">
-        <v>240</v>
       </c>
     </row>
     <row r="125" spans="1:4">
       <c r="A125" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B125" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="126" spans="1:4">
       <c r="A126" t="s">
+        <v>241</v>
+      </c>
+      <c r="B126" t="s">
         <v>242</v>
-      </c>
-      <c r="B126" t="s">
-        <v>243</v>
       </c>
     </row>
     <row r="127" spans="1:4">
       <c r="A127" t="s">
+        <v>243</v>
+      </c>
+      <c r="B127" t="s">
         <v>244</v>
-      </c>
-      <c r="B127" t="s">
-        <v>245</v>
       </c>
     </row>
     <row r="128" spans="1:4">
       <c r="A128" t="s">
+        <v>245</v>
+      </c>
+      <c r="B128" t="s">
         <v>246</v>
-      </c>
-      <c r="B128" t="s">
-        <v>247</v>
       </c>
     </row>
     <row r="129" spans="1:2">
       <c r="A129" t="s">
+        <v>247</v>
+      </c>
+      <c r="B129" t="s">
         <v>248</v>
-      </c>
-      <c r="B129" t="s">
-        <v>249</v>
       </c>
     </row>
     <row r="130" spans="1:2">
       <c r="A130" t="s">
+        <v>249</v>
+      </c>
+      <c r="B130" t="s">
         <v>250</v>
-      </c>
-      <c r="B130" t="s">
-        <v>251</v>
       </c>
     </row>
     <row r="131" spans="1:2">
       <c r="A131" t="s">
+        <v>251</v>
+      </c>
+      <c r="B131" t="s">
         <v>252</v>
-      </c>
-      <c r="B131" t="s">
-        <v>253</v>
       </c>
     </row>
     <row r="132" spans="1:2">
       <c r="A132" t="s">
+        <v>253</v>
+      </c>
+      <c r="B132" t="s">
         <v>254</v>
-      </c>
-      <c r="B132" t="s">
-        <v>255</v>
       </c>
     </row>
     <row r="133" spans="1:2">
       <c r="A133" t="s">
+        <v>255</v>
+      </c>
+      <c r="B133" t="s">
         <v>256</v>
-      </c>
-      <c r="B133" t="s">
-        <v>257</v>
       </c>
     </row>
     <row r="134" spans="1:2">
       <c r="A134" t="s">
+        <v>257</v>
+      </c>
+      <c r="B134" t="s">
         <v>258</v>
-      </c>
-      <c r="B134" t="s">
-        <v>259</v>
       </c>
     </row>
     <row r="135" spans="1:2">
       <c r="A135" t="s">
+        <v>259</v>
+      </c>
+      <c r="B135" t="s">
         <v>260</v>
-      </c>
-      <c r="B135" t="s">
-        <v>261</v>
       </c>
     </row>
     <row r="136" spans="1:2">
       <c r="A136" t="s">
+        <v>261</v>
+      </c>
+      <c r="B136" t="s">
         <v>262</v>
-      </c>
-      <c r="B136" t="s">
-        <v>263</v>
       </c>
     </row>
     <row r="137" spans="1:2">
       <c r="A137" t="s">
+        <v>263</v>
+      </c>
+      <c r="B137" t="s">
         <v>264</v>
-      </c>
-      <c r="B137" t="s">
-        <v>265</v>
       </c>
     </row>
     <row r="138" spans="1:2">
       <c r="A138" t="s">
+        <v>265</v>
+      </c>
+      <c r="B138" t="s">
         <v>266</v>
-      </c>
-      <c r="B138" t="s">
-        <v>267</v>
       </c>
     </row>
     <row r="139" spans="1:2">
       <c r="A139" t="s">
+        <v>267</v>
+      </c>
+      <c r="B139" t="s">
         <v>268</v>
-      </c>
-      <c r="B139" t="s">
-        <v>269</v>
       </c>
     </row>
     <row r="140" spans="1:2">
       <c r="A140" t="s">
+        <v>269</v>
+      </c>
+      <c r="B140" t="s">
         <v>270</v>
-      </c>
-      <c r="B140" t="s">
-        <v>271</v>
       </c>
     </row>
     <row r="141" spans="1:2">
       <c r="A141" t="s">
+        <v>271</v>
+      </c>
+      <c r="B141" t="s">
         <v>272</v>
-      </c>
-      <c r="B141" t="s">
-        <v>273</v>
       </c>
     </row>
     <row r="142" spans="1:2">
       <c r="A142" t="s">
+        <v>273</v>
+      </c>
+      <c r="B142" t="s">
         <v>274</v>
-      </c>
-      <c r="B142" t="s">
-        <v>275</v>
       </c>
     </row>
   </sheetData>

--- a/blue archive.xlsx
+++ b/blue archive.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28770" windowHeight="12180"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="512" uniqueCount="508">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="653" uniqueCount="567">
   <si>
     <t>アイリ</t>
     <phoneticPr fontId="1"/>
@@ -50,13 +50,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>室笠</t>
-    <rPh sb="0" eb="2">
-      <t>ムロカサ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>アキラ</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -2361,23 +2354,563 @@
   </si>
   <si>
     <t>室笠</t>
+  </si>
+  <si>
+    <t>放課後スイーツ部</t>
+    <rPh sb="0" eb="3">
+      <t>ホウカゴ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ブ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>連邦生徒会</t>
+    <rPh sb="0" eb="2">
+      <t>レンポウ</t>
+    </rPh>
+    <rPh sb="2" eb="5">
+      <t>セイトカイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>七囚人</t>
+    <rPh sb="0" eb="1">
+      <t>ナナ</t>
+    </rPh>
+    <rPh sb="1" eb="3">
+      <t>シュウジン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>風紀委員会</t>
+    <rPh sb="0" eb="5">
+      <t>フウキイインカイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>補習授業部</t>
+    <rPh sb="0" eb="5">
+      <t>ホシュウジュギョウブ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アリウススクワッド</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ゲーム開発部</t>
+    <rPh sb="3" eb="6">
+      <t>カイハツブ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>便利屋68</t>
+    <rPh sb="0" eb="3">
+      <t>ベンリヤ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>忍術研究部</t>
+    <rPh sb="0" eb="2">
+      <t>ニンジュツ</t>
+    </rPh>
+    <rPh sb="2" eb="5">
+      <t>ケンキュウブ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>美食研究会</t>
+    <rPh sb="0" eb="2">
+      <t>ビショク</t>
+    </rPh>
+    <rPh sb="2" eb="5">
+      <t>ケンキュウカイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>正義実現委員会</t>
+    <rPh sb="0" eb="2">
+      <t>セイギ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ジツゲン</t>
+    </rPh>
+    <rPh sb="4" eb="7">
+      <t>イインカイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>万魔殿</t>
+    <rPh sb="0" eb="1">
+      <t>マン</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>マ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>デン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>図書委員会</t>
+    <rPh sb="0" eb="5">
+      <t>トショイインカイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Cleaning&amp;Clearing</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>エンジニア部</t>
+    <rPh sb="5" eb="6">
+      <t>ブ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>お祭り運営委員会</t>
+    <rPh sb="1" eb="2">
+      <t>マツ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ウンエイ</t>
+    </rPh>
+    <rPh sb="5" eb="8">
+      <t>イインカイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>特異現象捜査部</t>
+    <rPh sb="0" eb="2">
+      <t>トクイ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ゲンショウ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ソウサ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ブ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>帰宅部</t>
+    <rPh sb="0" eb="3">
+      <t>キタクブ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>修行部</t>
+    <rPh sb="0" eb="3">
+      <t>シュギョウブ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>京劇部</t>
+    <rPh sb="0" eb="2">
+      <t>キョウゲキ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ブ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>温泉開発部</t>
+    <rPh sb="0" eb="2">
+      <t>オンセン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>カイハツ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ブ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>陰陽部</t>
+    <rPh sb="0" eb="2">
+      <t>インヨウ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ブ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>公安局</t>
+    <rPh sb="0" eb="3">
+      <t>コウアンキョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>百花繚乱紛争調停委員会</t>
+    <rPh sb="0" eb="4">
+      <t>ヒャッカリョウラン</t>
+    </rPh>
+    <rPh sb="4" eb="8">
+      <t>フンソウチョウテイ</t>
+    </rPh>
+    <rPh sb="8" eb="11">
+      <t>イインカイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>玄龍門</t>
+    <rPh sb="0" eb="1">
+      <t>ゲン</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>リュウ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>モン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>生活安全局</t>
+    <rPh sb="0" eb="2">
+      <t>セイカツ</t>
+    </rPh>
+    <rPh sb="2" eb="5">
+      <t>アンゼンキョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>梅花園</t>
+    <rPh sb="0" eb="1">
+      <t>ウメ</t>
+    </rPh>
+    <rPh sb="1" eb="3">
+      <t>ハナゾノ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ヴェリタス</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>セミナー</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>RABBIT小隊</t>
+    <rPh sb="6" eb="8">
+      <t>ショウタイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>シスターフッド</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>錬丹術研究会</t>
+    <rPh sb="0" eb="1">
+      <t>レン</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>タン</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ジュツ</t>
+    </rPh>
+    <rPh sb="3" eb="6">
+      <t>ケンキュウカイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>227号特別クラス</t>
+    <rPh sb="3" eb="4">
+      <t>ゴウ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>トクベツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>報道部</t>
+    <rPh sb="0" eb="3">
+      <t>ホウドウブ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>給食部</t>
+    <rPh sb="0" eb="3">
+      <t>キュウショクブ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>花鳥風月部</t>
+    <rPh sb="0" eb="4">
+      <t>カチョウフウゲツ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ブ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>梅花園</t>
+    <rPh sb="0" eb="3">
+      <t>バイカエン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>対策委員会</t>
+    <rPh sb="0" eb="2">
+      <t>タイサク</t>
+    </rPh>
+    <rPh sb="2" eb="5">
+      <t>イインカイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ハイランダー監理室</t>
+    <rPh sb="6" eb="8">
+      <t>カンリ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>シツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>トリニティ自警団</t>
+    <rPh sb="5" eb="8">
+      <t>ジケイダン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>トレーニング部</t>
+    <rPh sb="6" eb="7">
+      <t>ブ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ティーパーティー</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>救急医学部</t>
+    <rPh sb="0" eb="2">
+      <t>キュウキュウ</t>
+    </rPh>
+    <rPh sb="2" eb="5">
+      <t>イガクブ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>救護騎士団</t>
+    <rPh sb="0" eb="2">
+      <t>キュウゴ</t>
+    </rPh>
+    <rPh sb="2" eb="5">
+      <t>キシダン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>出版部</t>
+    <rPh sb="0" eb="2">
+      <t>シュッパン</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ブ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>レッドウィンター事務局</t>
+    <rPh sb="8" eb="11">
+      <t>ジムキョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ワイルドハント芸術学院</t>
+    <rPh sb="7" eb="9">
+      <t>ゲイジュツ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ガクイン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>特異現象捜査部/Cleaning&amp;Clearing</t>
+    <rPh sb="0" eb="2">
+      <t>トクイ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ゲンショウ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ソウサ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ブ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>CCC</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>特異現象捜査部</t>
+    <rPh sb="0" eb="4">
+      <t>トクイゲンショウ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ソウサ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ブ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>対策委員会/アビドス生徒会</t>
+    <rPh sb="0" eb="2">
+      <t>タイサク</t>
+    </rPh>
+    <rPh sb="2" eb="5">
+      <t>イインカイ</t>
+    </rPh>
+    <rPh sb="10" eb="13">
+      <t>セイトカイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>工務部</t>
+    <rPh sb="0" eb="2">
+      <t>コウム</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ブ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>知識解放戦線</t>
+    <rPh sb="0" eb="2">
+      <t>チシキ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>カイホウ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>センセン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>FOX小隊</t>
+    <rPh sb="3" eb="5">
+      <t>ショウタイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アビドス生徒会</t>
+    <rPh sb="4" eb="7">
+      <t>セイトカイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ヘルメット団</t>
+    <rPh sb="5" eb="6">
+      <t>ダン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>連邦生徒会</t>
+    <rPh sb="0" eb="5">
+      <t>レンポウセイトカイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>玄武商会</t>
+    <rPh sb="0" eb="1">
+      <t>ゲン</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>ブ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ショウカイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>セイア</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>鋭き光彩</t>
+    <rPh sb="0" eb="1">
+      <t>スルド</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>コウサイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="游ゴシック"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="6"/>
-      <name val="Calibri"/>
+      <name val="游ゴシック"/>
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -2685,15 +3218,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D142"/>
+  <dimension ref="A1:F141"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="I64" sqref="I64"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="5" max="5" width="22" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2701,13 +3237,16 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>278</v>
+      </c>
+      <c r="D1" t="s">
         <v>279</v>
       </c>
-      <c r="D1" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="F1" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -2715,1802 +3254,2220 @@
         <v>3</v>
       </c>
       <c r="C2" t="s">
+        <v>280</v>
+      </c>
+      <c r="D2" t="s">
         <v>281</v>
       </c>
-      <c r="D2" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+      <c r="F2" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="C3" t="s">
+        <v>282</v>
+      </c>
+      <c r="D3" t="s">
         <v>283</v>
       </c>
-      <c r="D3" t="s">
+      <c r="F3" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" t="s">
         <v>284</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>285</v>
       </c>
-      <c r="D4" t="s">
+      <c r="F4" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A5" t="s">
+        <v>274</v>
+      </c>
+      <c r="B5" t="s">
+        <v>275</v>
+      </c>
+      <c r="C5" t="s">
         <v>286</v>
       </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" t="s">
+      <c r="D5" t="s">
+        <v>287</v>
+      </c>
+      <c r="F5" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" t="s">
+        <v>288</v>
+      </c>
+      <c r="D6" t="s">
+        <v>289</v>
+      </c>
+      <c r="F6" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A7" t="s">
         <v>7</v>
       </c>
-      <c r="C5" t="s">
-        <v>287</v>
-      </c>
-      <c r="D5" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" t="s">
-        <v>275</v>
-      </c>
-      <c r="B6" t="s">
-        <v>276</v>
-      </c>
-      <c r="C6" t="s">
-        <v>289</v>
-      </c>
-      <c r="D6" t="s">
+      <c r="B7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" t="s">
         <v>290</v>
       </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7" t="s">
+      <c r="D7" t="s">
+        <v>291</v>
+      </c>
+      <c r="F7" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A8" t="s">
         <v>11</v>
       </c>
-      <c r="C7" t="s">
-        <v>291</v>
-      </c>
-      <c r="D7" t="s">
+      <c r="B8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" t="s">
         <v>292</v>
       </c>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8" t="s">
-        <v>9</v>
-      </c>
-      <c r="C8" t="s">
+      <c r="D8" t="s">
         <v>293</v>
       </c>
-      <c r="D8" t="s">
+      <c r="F8" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" t="s">
         <v>294</v>
       </c>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" t="s">
-        <v>12</v>
-      </c>
-      <c r="B9" t="s">
-        <v>13</v>
-      </c>
-      <c r="C9" t="s">
+      <c r="D9" t="s">
         <v>295</v>
       </c>
-      <c r="D9" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+      <c r="F9" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B10" t="s">
         <v>15</v>
       </c>
       <c r="C10" t="s">
+        <v>296</v>
+      </c>
+      <c r="D10" t="s">
         <v>297</v>
       </c>
-      <c r="D10" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+      <c r="F10" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
         <v>17</v>
       </c>
       <c r="B11" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C11" t="s">
+        <v>298</v>
+      </c>
+      <c r="D11" t="s">
         <v>299</v>
       </c>
-      <c r="D11" t="s">
+      <c r="F11" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A12" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12" t="s">
+        <v>20</v>
+      </c>
+      <c r="C12" t="s">
         <v>300</v>
       </c>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="A12" t="s">
-        <v>18</v>
-      </c>
-      <c r="B12" t="s">
-        <v>19</v>
-      </c>
-      <c r="C12" t="s">
+      <c r="D12" t="s">
         <v>301</v>
       </c>
-      <c r="D12" t="s">
+      <c r="F12" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A13" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" t="s">
+        <v>22</v>
+      </c>
+      <c r="C13" t="s">
         <v>302</v>
       </c>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="A13" t="s">
-        <v>20</v>
-      </c>
-      <c r="B13" t="s">
-        <v>21</v>
-      </c>
-      <c r="C13" t="s">
+      <c r="D13" t="s">
         <v>303</v>
       </c>
-      <c r="D13" t="s">
+      <c r="F13" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" t="s">
         <v>304</v>
       </c>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="A14" t="s">
-        <v>22</v>
-      </c>
-      <c r="B14" t="s">
-        <v>23</v>
-      </c>
-      <c r="C14" t="s">
+      <c r="D14" t="s">
         <v>305</v>
       </c>
-      <c r="D14" t="s">
+      <c r="F14" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A15" t="s">
+        <v>25</v>
+      </c>
+      <c r="B15" t="s">
+        <v>26</v>
+      </c>
+      <c r="C15" t="s">
         <v>306</v>
       </c>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="A15" t="s">
-        <v>24</v>
-      </c>
-      <c r="B15" t="s">
-        <v>25</v>
-      </c>
-      <c r="C15" t="s">
+      <c r="D15" t="s">
         <v>307</v>
       </c>
-      <c r="D15" t="s">
+      <c r="F15" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A16" t="s">
+        <v>27</v>
+      </c>
+      <c r="B16" t="s">
+        <v>28</v>
+      </c>
+      <c r="C16" t="s">
         <v>308</v>
       </c>
-    </row>
-    <row r="16" spans="1:4">
-      <c r="A16" t="s">
-        <v>26</v>
-      </c>
-      <c r="B16" t="s">
-        <v>27</v>
-      </c>
-      <c r="C16" t="s">
+      <c r="D16" t="s">
         <v>309</v>
       </c>
-      <c r="D16" t="s">
+      <c r="F16" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A17" t="s">
+        <v>29</v>
+      </c>
+      <c r="B17" t="s">
+        <v>30</v>
+      </c>
+      <c r="C17" t="s">
         <v>310</v>
       </c>
-    </row>
-    <row r="17" spans="1:4">
-      <c r="A17" t="s">
-        <v>28</v>
-      </c>
-      <c r="B17" t="s">
-        <v>29</v>
-      </c>
-      <c r="C17" t="s">
+      <c r="D17" t="s">
         <v>311</v>
       </c>
-      <c r="D17" t="s">
+      <c r="F17" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A18" t="s">
+        <v>31</v>
+      </c>
+      <c r="B18" t="s">
+        <v>32</v>
+      </c>
+      <c r="C18" t="s">
         <v>312</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
-      <c r="A18" t="s">
-        <v>30</v>
-      </c>
-      <c r="B18" t="s">
-        <v>31</v>
-      </c>
-      <c r="C18" t="s">
+      <c r="D18" t="s">
         <v>313</v>
       </c>
-      <c r="D18" t="s">
+      <c r="F18" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A19" t="s">
+        <v>33</v>
+      </c>
+      <c r="B19" t="s">
+        <v>34</v>
+      </c>
+      <c r="C19" t="s">
         <v>314</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
-      <c r="A19" t="s">
-        <v>32</v>
-      </c>
-      <c r="B19" t="s">
-        <v>33</v>
-      </c>
-      <c r="C19" t="s">
+      <c r="D19" t="s">
         <v>315</v>
       </c>
-      <c r="D19" t="s">
+      <c r="F19" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A20" t="s">
+        <v>35</v>
+      </c>
+      <c r="B20" t="s">
+        <v>36</v>
+      </c>
+      <c r="C20" t="s">
         <v>316</v>
       </c>
-    </row>
-    <row r="20" spans="1:4">
-      <c r="A20" t="s">
-        <v>34</v>
-      </c>
-      <c r="B20" t="s">
-        <v>35</v>
-      </c>
-      <c r="C20" t="s">
+      <c r="D20" t="s">
         <v>317</v>
       </c>
-      <c r="D20" t="s">
+      <c r="F20" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A21" t="s">
+        <v>37</v>
+      </c>
+      <c r="B21" t="s">
+        <v>38</v>
+      </c>
+      <c r="C21" t="s">
         <v>318</v>
       </c>
-    </row>
-    <row r="21" spans="1:4">
-      <c r="A21" t="s">
-        <v>36</v>
-      </c>
-      <c r="B21" t="s">
-        <v>37</v>
-      </c>
-      <c r="C21" t="s">
+      <c r="D21" t="s">
         <v>319</v>
       </c>
-      <c r="D21" t="s">
+      <c r="F21" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A22" t="s">
+        <v>39</v>
+      </c>
+      <c r="B22" t="s">
+        <v>40</v>
+      </c>
+      <c r="C22" t="s">
         <v>320</v>
       </c>
-    </row>
-    <row r="22" spans="1:4">
-      <c r="A22" t="s">
-        <v>38</v>
-      </c>
-      <c r="B22" t="s">
-        <v>39</v>
-      </c>
-      <c r="C22" t="s">
+      <c r="D22" t="s">
         <v>321</v>
       </c>
-      <c r="D22" t="s">
+      <c r="F22" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A23" t="s">
+        <v>41</v>
+      </c>
+      <c r="B23" t="s">
+        <v>42</v>
+      </c>
+      <c r="C23" t="s">
         <v>322</v>
       </c>
-    </row>
-    <row r="23" spans="1:4">
-      <c r="A23" t="s">
-        <v>40</v>
-      </c>
-      <c r="B23" t="s">
-        <v>41</v>
-      </c>
-      <c r="C23" t="s">
+      <c r="D23" t="s">
         <v>323</v>
       </c>
-      <c r="D23" t="s">
+      <c r="F23" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A24" t="s">
+        <v>43</v>
+      </c>
+      <c r="B24" t="s">
+        <v>44</v>
+      </c>
+      <c r="C24" t="s">
         <v>324</v>
       </c>
-    </row>
-    <row r="24" spans="1:4">
-      <c r="A24" t="s">
-        <v>42</v>
-      </c>
-      <c r="B24" t="s">
-        <v>43</v>
-      </c>
-      <c r="C24" t="s">
+      <c r="D24" t="s">
         <v>325</v>
       </c>
-      <c r="D24" t="s">
+      <c r="F24" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A25" t="s">
+        <v>45</v>
+      </c>
+      <c r="B25" t="s">
+        <v>46</v>
+      </c>
+      <c r="C25" t="s">
         <v>326</v>
       </c>
-    </row>
-    <row r="25" spans="1:4">
-      <c r="A25" t="s">
-        <v>44</v>
-      </c>
-      <c r="B25" t="s">
-        <v>45</v>
-      </c>
-      <c r="C25" t="s">
+      <c r="D25" t="s">
         <v>327</v>
       </c>
-      <c r="D25" t="s">
+      <c r="F25" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A26" t="s">
+        <v>47</v>
+      </c>
+      <c r="B26" t="s">
+        <v>48</v>
+      </c>
+      <c r="C26" t="s">
         <v>328</v>
       </c>
-    </row>
-    <row r="26" spans="1:4">
-      <c r="A26" t="s">
-        <v>46</v>
-      </c>
-      <c r="B26" t="s">
-        <v>47</v>
-      </c>
-      <c r="C26" t="s">
+      <c r="D26" t="s">
         <v>329</v>
       </c>
-      <c r="D26" t="s">
+      <c r="F26" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A27" t="s">
+        <v>276</v>
+      </c>
+      <c r="B27" t="s">
+        <v>277</v>
+      </c>
+      <c r="C27" t="s">
         <v>330</v>
       </c>
-    </row>
-    <row r="27" spans="1:4">
-      <c r="A27" t="s">
-        <v>48</v>
-      </c>
-      <c r="B27" t="s">
+      <c r="D27" t="s">
+        <v>331</v>
+      </c>
+      <c r="F27" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A28" t="s">
         <v>49</v>
       </c>
-      <c r="C27" t="s">
-        <v>331</v>
-      </c>
-      <c r="D27" t="s">
+      <c r="B28" t="s">
+        <v>50</v>
+      </c>
+      <c r="C28" t="s">
         <v>332</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
-      <c r="A28" t="s">
-        <v>277</v>
-      </c>
-      <c r="B28" t="s">
-        <v>278</v>
-      </c>
-      <c r="C28" t="s">
+      <c r="D28" t="s">
         <v>333</v>
       </c>
-      <c r="D28" t="s">
+      <c r="F28" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A29" t="s">
+        <v>51</v>
+      </c>
+      <c r="B29" t="s">
+        <v>52</v>
+      </c>
+      <c r="C29" t="s">
         <v>334</v>
       </c>
-    </row>
-    <row r="29" spans="1:4">
-      <c r="A29" t="s">
-        <v>50</v>
-      </c>
-      <c r="B29" t="s">
-        <v>51</v>
-      </c>
-      <c r="C29" t="s">
+      <c r="D29" t="s">
         <v>335</v>
       </c>
-      <c r="D29" t="s">
+      <c r="F29" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A30" t="s">
+        <v>53</v>
+      </c>
+      <c r="B30" t="s">
+        <v>54</v>
+      </c>
+      <c r="C30" t="s">
         <v>336</v>
       </c>
-    </row>
-    <row r="30" spans="1:4">
-      <c r="A30" t="s">
-        <v>52</v>
-      </c>
-      <c r="B30" t="s">
-        <v>53</v>
-      </c>
-      <c r="C30" t="s">
+      <c r="D30" t="s">
         <v>337</v>
       </c>
-      <c r="D30" t="s">
+      <c r="F30" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A31" t="s">
+        <v>55</v>
+      </c>
+      <c r="B31" t="s">
+        <v>56</v>
+      </c>
+      <c r="C31" t="s">
         <v>338</v>
       </c>
-    </row>
-    <row r="31" spans="1:4">
-      <c r="A31" t="s">
-        <v>54</v>
-      </c>
-      <c r="B31" t="s">
-        <v>55</v>
-      </c>
-      <c r="C31" t="s">
+      <c r="D31" t="s">
         <v>339</v>
       </c>
-      <c r="D31" t="s">
+      <c r="F31" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A32" t="s">
+        <v>57</v>
+      </c>
+      <c r="B32" t="s">
+        <v>58</v>
+      </c>
+      <c r="C32" t="s">
         <v>340</v>
       </c>
-    </row>
-    <row r="32" spans="1:4">
-      <c r="A32" t="s">
-        <v>56</v>
-      </c>
-      <c r="B32" t="s">
-        <v>57</v>
-      </c>
-      <c r="C32" t="s">
+      <c r="D32" t="s">
         <v>341</v>
       </c>
-      <c r="D32" t="s">
+      <c r="F32" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A33" t="s">
+        <v>59</v>
+      </c>
+      <c r="B33" t="s">
+        <v>60</v>
+      </c>
+      <c r="C33" t="s">
         <v>342</v>
       </c>
-    </row>
-    <row r="33" spans="1:4">
-      <c r="A33" t="s">
-        <v>58</v>
-      </c>
-      <c r="B33" t="s">
-        <v>59</v>
-      </c>
-      <c r="C33" t="s">
+      <c r="D33" t="s">
         <v>343</v>
       </c>
-      <c r="D33" t="s">
+      <c r="F33" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A34" t="s">
+        <v>61</v>
+      </c>
+      <c r="B34" t="s">
+        <v>62</v>
+      </c>
+      <c r="C34" t="s">
         <v>344</v>
       </c>
-    </row>
-    <row r="34" spans="1:4">
-      <c r="A34" t="s">
-        <v>60</v>
-      </c>
-      <c r="B34" t="s">
-        <v>61</v>
-      </c>
-      <c r="C34" t="s">
+      <c r="D34" t="s">
         <v>345</v>
       </c>
-      <c r="D34" t="s">
+      <c r="F34" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A35" t="s">
+        <v>63</v>
+      </c>
+      <c r="B35" t="s">
+        <v>64</v>
+      </c>
+      <c r="C35" t="s">
         <v>346</v>
       </c>
-    </row>
-    <row r="35" spans="1:4">
-      <c r="A35" t="s">
-        <v>62</v>
-      </c>
-      <c r="B35" t="s">
-        <v>63</v>
-      </c>
-      <c r="C35" t="s">
+      <c r="D35" t="s">
         <v>347</v>
       </c>
-      <c r="D35" t="s">
+      <c r="F35" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A36" t="s">
+        <v>65</v>
+      </c>
+      <c r="B36" t="s">
+        <v>66</v>
+      </c>
+      <c r="C36" t="s">
         <v>348</v>
       </c>
-    </row>
-    <row r="36" spans="1:4">
-      <c r="A36" t="s">
-        <v>64</v>
-      </c>
-      <c r="B36" t="s">
-        <v>65</v>
-      </c>
-      <c r="C36" t="s">
+      <c r="D36" t="s">
         <v>349</v>
       </c>
-      <c r="D36" t="s">
+      <c r="F36" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A37" t="s">
+        <v>67</v>
+      </c>
+      <c r="B37" t="s">
+        <v>68</v>
+      </c>
+      <c r="C37" t="s">
         <v>350</v>
       </c>
-    </row>
-    <row r="37" spans="1:4">
-      <c r="A37" t="s">
-        <v>66</v>
-      </c>
-      <c r="B37" t="s">
-        <v>67</v>
-      </c>
-      <c r="C37" t="s">
+      <c r="D37" t="s">
         <v>351</v>
       </c>
-      <c r="D37" t="s">
+      <c r="F37" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A38" t="s">
+        <v>69</v>
+      </c>
+      <c r="B38" t="s">
+        <v>70</v>
+      </c>
+      <c r="C38" t="s">
         <v>352</v>
       </c>
-    </row>
-    <row r="38" spans="1:4">
-      <c r="A38" t="s">
-        <v>68</v>
-      </c>
-      <c r="B38" t="s">
-        <v>69</v>
-      </c>
-      <c r="C38" t="s">
+      <c r="D38" t="s">
         <v>353</v>
       </c>
-      <c r="D38" t="s">
+      <c r="F38" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A39" t="s">
+        <v>71</v>
+      </c>
+      <c r="B39" t="s">
+        <v>72</v>
+      </c>
+      <c r="C39" t="s">
         <v>354</v>
       </c>
-    </row>
-    <row r="39" spans="1:4">
-      <c r="A39" t="s">
-        <v>70</v>
-      </c>
-      <c r="B39" t="s">
-        <v>71</v>
-      </c>
-      <c r="C39" t="s">
+      <c r="D39" t="s">
         <v>355</v>
       </c>
-      <c r="D39" t="s">
+      <c r="F39" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A40" t="s">
+        <v>73</v>
+      </c>
+      <c r="B40" t="s">
+        <v>74</v>
+      </c>
+      <c r="C40" t="s">
         <v>356</v>
       </c>
-    </row>
-    <row r="40" spans="1:4">
-      <c r="A40" t="s">
+      <c r="D40" t="s">
+        <v>357</v>
+      </c>
+      <c r="F40" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A41" t="s">
+        <v>75</v>
+      </c>
+      <c r="B41" t="s">
+        <v>76</v>
+      </c>
+      <c r="C41" t="s">
+        <v>358</v>
+      </c>
+      <c r="D41" t="s">
+        <v>359</v>
+      </c>
+      <c r="F41" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A42" t="s">
+        <v>77</v>
+      </c>
+      <c r="B42" t="s">
+        <v>78</v>
+      </c>
+      <c r="C42" t="s">
+        <v>360</v>
+      </c>
+      <c r="D42" t="s">
+        <v>361</v>
+      </c>
+      <c r="F42" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A43" t="s">
+        <v>79</v>
+      </c>
+      <c r="B43" t="s">
+        <v>80</v>
+      </c>
+      <c r="C43" t="s">
+        <v>362</v>
+      </c>
+      <c r="D43" t="s">
+        <v>363</v>
+      </c>
+      <c r="F43" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A44" t="s">
+        <v>81</v>
+      </c>
+      <c r="B44" t="s">
+        <v>82</v>
+      </c>
+      <c r="C44" t="s">
+        <v>364</v>
+      </c>
+      <c r="D44" t="s">
+        <v>365</v>
+      </c>
+      <c r="F44" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A45" t="s">
+        <v>83</v>
+      </c>
+      <c r="B45" t="s">
+        <v>84</v>
+      </c>
+      <c r="C45" t="s">
+        <v>366</v>
+      </c>
+      <c r="D45" t="s">
+        <v>367</v>
+      </c>
+      <c r="F45" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A46" t="s">
+        <v>85</v>
+      </c>
+      <c r="B46" t="s">
+        <v>86</v>
+      </c>
+      <c r="C46" t="s">
+        <v>368</v>
+      </c>
+      <c r="D46" t="s">
+        <v>369</v>
+      </c>
+      <c r="F46" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A47" t="s">
+        <v>87</v>
+      </c>
+      <c r="B47" t="s">
+        <v>88</v>
+      </c>
+      <c r="C47" t="s">
+        <v>370</v>
+      </c>
+      <c r="D47" t="s">
+        <v>371</v>
+      </c>
+      <c r="F47" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A48" t="s">
+        <v>89</v>
+      </c>
+      <c r="B48" t="s">
+        <v>90</v>
+      </c>
+      <c r="C48" t="s">
+        <v>372</v>
+      </c>
+      <c r="D48" t="s">
+        <v>373</v>
+      </c>
+      <c r="F48" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A49" t="s">
+        <v>91</v>
+      </c>
+      <c r="B49" t="s">
+        <v>92</v>
+      </c>
+      <c r="C49" t="s">
+        <v>374</v>
+      </c>
+      <c r="D49" t="s">
+        <v>375</v>
+      </c>
+      <c r="F49" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A50" t="s">
+        <v>93</v>
+      </c>
+      <c r="B50" t="s">
+        <v>94</v>
+      </c>
+      <c r="C50" t="s">
+        <v>376</v>
+      </c>
+      <c r="D50" t="s">
+        <v>377</v>
+      </c>
+      <c r="F50" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A51" t="s">
+        <v>95</v>
+      </c>
+      <c r="B51" t="s">
+        <v>96</v>
+      </c>
+      <c r="C51" t="s">
+        <v>378</v>
+      </c>
+      <c r="D51" t="s">
+        <v>379</v>
+      </c>
+      <c r="F51" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A52" t="s">
+        <v>97</v>
+      </c>
+      <c r="B52" t="s">
+        <v>98</v>
+      </c>
+      <c r="C52" t="s">
+        <v>380</v>
+      </c>
+      <c r="D52" t="s">
+        <v>381</v>
+      </c>
+      <c r="F52" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A53" t="s">
+        <v>99</v>
+      </c>
+      <c r="B53" t="s">
+        <v>100</v>
+      </c>
+      <c r="C53" t="s">
+        <v>382</v>
+      </c>
+      <c r="D53" t="s">
+        <v>383</v>
+      </c>
+      <c r="F53" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A54" t="s">
+        <v>101</v>
+      </c>
+      <c r="B54" t="s">
+        <v>102</v>
+      </c>
+      <c r="C54" t="s">
+        <v>384</v>
+      </c>
+      <c r="D54" t="s">
+        <v>385</v>
+      </c>
+      <c r="F54" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A55" t="s">
+        <v>103</v>
+      </c>
+      <c r="B55" t="s">
         <v>72</v>
       </c>
-      <c r="B40" t="s">
-        <v>73</v>
-      </c>
-      <c r="C40" t="s">
-        <v>357</v>
-      </c>
-      <c r="D40" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
-      <c r="A41" t="s">
-        <v>74</v>
-      </c>
-      <c r="B41" t="s">
-        <v>75</v>
-      </c>
-      <c r="C41" t="s">
-        <v>359</v>
-      </c>
-      <c r="D41" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
-      <c r="A42" t="s">
-        <v>76</v>
-      </c>
-      <c r="B42" t="s">
-        <v>77</v>
-      </c>
-      <c r="C42" t="s">
-        <v>361</v>
-      </c>
-      <c r="D42" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4">
-      <c r="A43" t="s">
-        <v>78</v>
-      </c>
-      <c r="B43" t="s">
-        <v>79</v>
-      </c>
-      <c r="C43" t="s">
-        <v>363</v>
-      </c>
-      <c r="D43" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
-      <c r="A44" t="s">
-        <v>80</v>
-      </c>
-      <c r="B44" t="s">
-        <v>81</v>
-      </c>
-      <c r="C44" t="s">
-        <v>365</v>
-      </c>
-      <c r="D44" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
-      <c r="A45" t="s">
-        <v>82</v>
-      </c>
-      <c r="B45" t="s">
-        <v>83</v>
-      </c>
-      <c r="C45" t="s">
-        <v>367</v>
-      </c>
-      <c r="D45" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4">
-      <c r="A46" t="s">
-        <v>84</v>
-      </c>
-      <c r="B46" t="s">
-        <v>85</v>
-      </c>
-      <c r="C46" t="s">
-        <v>369</v>
-      </c>
-      <c r="D46" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
-      <c r="A47" t="s">
-        <v>86</v>
-      </c>
-      <c r="B47" t="s">
-        <v>87</v>
-      </c>
-      <c r="C47" t="s">
-        <v>371</v>
-      </c>
-      <c r="D47" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
-      <c r="A48" t="s">
-        <v>88</v>
-      </c>
-      <c r="B48" t="s">
-        <v>89</v>
-      </c>
-      <c r="C48" t="s">
-        <v>373</v>
-      </c>
-      <c r="D48" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
-      <c r="A49" t="s">
-        <v>90</v>
-      </c>
-      <c r="B49" t="s">
-        <v>91</v>
-      </c>
-      <c r="C49" t="s">
-        <v>375</v>
-      </c>
-      <c r="D49" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4">
-      <c r="A50" t="s">
-        <v>92</v>
-      </c>
-      <c r="B50" t="s">
-        <v>93</v>
-      </c>
-      <c r="C50" t="s">
-        <v>377</v>
-      </c>
-      <c r="D50" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
-      <c r="A51" t="s">
-        <v>94</v>
-      </c>
-      <c r="B51" t="s">
-        <v>95</v>
-      </c>
-      <c r="C51" t="s">
-        <v>379</v>
-      </c>
-      <c r="D51" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
-      <c r="A52" t="s">
-        <v>96</v>
-      </c>
-      <c r="B52" t="s">
-        <v>97</v>
-      </c>
-      <c r="C52" t="s">
-        <v>381</v>
-      </c>
-      <c r="D52" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4">
-      <c r="A53" t="s">
-        <v>98</v>
-      </c>
-      <c r="B53" t="s">
-        <v>99</v>
-      </c>
-      <c r="C53" t="s">
-        <v>383</v>
-      </c>
-      <c r="D53" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
-      <c r="A54" t="s">
-        <v>100</v>
-      </c>
-      <c r="B54" t="s">
-        <v>101</v>
-      </c>
-      <c r="C54" t="s">
-        <v>385</v>
-      </c>
-      <c r="D54" t="s">
+      <c r="C55" t="s">
         <v>386</v>
       </c>
-    </row>
-    <row r="55" spans="1:4">
-      <c r="A55" t="s">
-        <v>102</v>
-      </c>
-      <c r="B55" t="s">
-        <v>103</v>
-      </c>
-      <c r="C55" t="s">
+      <c r="D55" t="s">
         <v>387</v>
       </c>
-      <c r="D55" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+      <c r="F55" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A56" t="s">
         <v>104</v>
       </c>
       <c r="B56" t="s">
-        <v>73</v>
+        <v>105</v>
       </c>
       <c r="C56" t="s">
+        <v>388</v>
+      </c>
+      <c r="D56" t="s">
         <v>389</v>
       </c>
-      <c r="D56" t="s">
+      <c r="F56" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A57" t="s">
+        <v>106</v>
+      </c>
+      <c r="B57" t="s">
+        <v>107</v>
+      </c>
+      <c r="C57" t="s">
         <v>390</v>
       </c>
-    </row>
-    <row r="57" spans="1:4">
-      <c r="A57" t="s">
-        <v>105</v>
-      </c>
-      <c r="B57" t="s">
-        <v>106</v>
-      </c>
-      <c r="C57" t="s">
+      <c r="D57" t="s">
         <v>391</v>
       </c>
-      <c r="D57" t="s">
+      <c r="F57" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A58" t="s">
+        <v>108</v>
+      </c>
+      <c r="B58" t="s">
+        <v>109</v>
+      </c>
+      <c r="C58" t="s">
         <v>392</v>
       </c>
-    </row>
-    <row r="58" spans="1:4">
-      <c r="A58" t="s">
-        <v>107</v>
-      </c>
-      <c r="B58" t="s">
-        <v>108</v>
-      </c>
-      <c r="C58" t="s">
+      <c r="D58" t="s">
         <v>393</v>
       </c>
-      <c r="D58" t="s">
+      <c r="F58" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A59" t="s">
+        <v>110</v>
+      </c>
+      <c r="B59" t="s">
+        <v>111</v>
+      </c>
+      <c r="C59" t="s">
         <v>394</v>
       </c>
-    </row>
-    <row r="59" spans="1:4">
-      <c r="A59" t="s">
-        <v>109</v>
-      </c>
-      <c r="B59" t="s">
-        <v>110</v>
-      </c>
-      <c r="C59" t="s">
+      <c r="D59" t="s">
         <v>395</v>
       </c>
-      <c r="D59" t="s">
+      <c r="F59" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A60" t="s">
+        <v>112</v>
+      </c>
+      <c r="B60" t="s">
+        <v>113</v>
+      </c>
+      <c r="C60" t="s">
         <v>396</v>
       </c>
-    </row>
-    <row r="60" spans="1:4">
-      <c r="A60" t="s">
-        <v>111</v>
-      </c>
-      <c r="B60" t="s">
-        <v>112</v>
-      </c>
-      <c r="C60" t="s">
+      <c r="D60" t="s">
         <v>397</v>
       </c>
-      <c r="D60" t="s">
+      <c r="F60" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A61" t="s">
+        <v>114</v>
+      </c>
+      <c r="B61" t="s">
+        <v>115</v>
+      </c>
+      <c r="C61" t="s">
         <v>398</v>
       </c>
-    </row>
-    <row r="61" spans="1:4">
-      <c r="A61" t="s">
-        <v>113</v>
-      </c>
-      <c r="B61" t="s">
-        <v>114</v>
-      </c>
-      <c r="C61" t="s">
+      <c r="D61" t="s">
         <v>399</v>
       </c>
-      <c r="D61" t="s">
+      <c r="F61" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A62" t="s">
+        <v>116</v>
+      </c>
+      <c r="B62" t="s">
+        <v>117</v>
+      </c>
+      <c r="C62" t="s">
         <v>400</v>
       </c>
-    </row>
-    <row r="62" spans="1:4">
-      <c r="A62" t="s">
-        <v>115</v>
-      </c>
-      <c r="B62" t="s">
-        <v>116</v>
-      </c>
-      <c r="C62" t="s">
+      <c r="D62" t="s">
         <v>401</v>
       </c>
-      <c r="D62" t="s">
+      <c r="F62" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A63" t="s">
+        <v>118</v>
+      </c>
+      <c r="B63" t="s">
+        <v>119</v>
+      </c>
+      <c r="C63" t="s">
         <v>402</v>
       </c>
-    </row>
-    <row r="63" spans="1:4">
-      <c r="A63" t="s">
-        <v>117</v>
-      </c>
-      <c r="B63" t="s">
-        <v>118</v>
-      </c>
-      <c r="C63" t="s">
+      <c r="D63" t="s">
         <v>403</v>
       </c>
-      <c r="D63" t="s">
+      <c r="F63" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A64" t="s">
+        <v>120</v>
+      </c>
+      <c r="B64" t="s">
+        <v>121</v>
+      </c>
+      <c r="C64" t="s">
         <v>404</v>
       </c>
-    </row>
-    <row r="64" spans="1:4">
-      <c r="A64" t="s">
-        <v>119</v>
-      </c>
-      <c r="B64" t="s">
-        <v>120</v>
-      </c>
-      <c r="C64" t="s">
+      <c r="D64" t="s">
         <v>405</v>
       </c>
-      <c r="D64" t="s">
+      <c r="F64" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A65" t="s">
+        <v>122</v>
+      </c>
+      <c r="B65" t="s">
+        <v>123</v>
+      </c>
+      <c r="C65" t="s">
         <v>406</v>
       </c>
-    </row>
-    <row r="65" spans="1:4">
-      <c r="A65" t="s">
-        <v>121</v>
-      </c>
-      <c r="B65" t="s">
-        <v>122</v>
-      </c>
-      <c r="C65" t="s">
+      <c r="D65" t="s">
         <v>407</v>
       </c>
-      <c r="D65" t="s">
+      <c r="F65" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A66" t="s">
+        <v>124</v>
+      </c>
+      <c r="B66" t="s">
+        <v>125</v>
+      </c>
+      <c r="C66" t="s">
         <v>408</v>
       </c>
-    </row>
-    <row r="66" spans="1:4">
-      <c r="A66" t="s">
-        <v>123</v>
-      </c>
-      <c r="B66" t="s">
-        <v>124</v>
-      </c>
-      <c r="C66" t="s">
+      <c r="D66" t="s">
         <v>409</v>
       </c>
-      <c r="D66" t="s">
+      <c r="F66" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A67" t="s">
+        <v>126</v>
+      </c>
+      <c r="B67" t="s">
+        <v>127</v>
+      </c>
+      <c r="C67" t="s">
         <v>410</v>
       </c>
-    </row>
-    <row r="67" spans="1:4">
-      <c r="A67" t="s">
-        <v>125</v>
-      </c>
-      <c r="B67" t="s">
-        <v>126</v>
-      </c>
-      <c r="C67" t="s">
+      <c r="D67" t="s">
         <v>411</v>
       </c>
-      <c r="D67" t="s">
+      <c r="F67" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A68" t="s">
+        <v>128</v>
+      </c>
+      <c r="B68" t="s">
+        <v>129</v>
+      </c>
+      <c r="C68" t="s">
         <v>412</v>
       </c>
-    </row>
-    <row r="68" spans="1:4">
-      <c r="A68" t="s">
-        <v>127</v>
-      </c>
-      <c r="B68" t="s">
-        <v>128</v>
-      </c>
-      <c r="C68" t="s">
+      <c r="D68" t="s">
         <v>413</v>
       </c>
-      <c r="D68" t="s">
+      <c r="F68" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A69" t="s">
+        <v>130</v>
+      </c>
+      <c r="B69" t="s">
+        <v>131</v>
+      </c>
+      <c r="C69" t="s">
         <v>414</v>
       </c>
-    </row>
-    <row r="69" spans="1:4">
-      <c r="A69" t="s">
-        <v>129</v>
-      </c>
-      <c r="B69" t="s">
-        <v>130</v>
-      </c>
-      <c r="C69" t="s">
+      <c r="D69" t="s">
         <v>415</v>
       </c>
-      <c r="D69" t="s">
+      <c r="F69" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A70" t="s">
+        <v>132</v>
+      </c>
+      <c r="B70" t="s">
+        <v>133</v>
+      </c>
+      <c r="C70" t="s">
         <v>416</v>
       </c>
-    </row>
-    <row r="70" spans="1:4">
-      <c r="A70" t="s">
-        <v>131</v>
-      </c>
-      <c r="B70" t="s">
-        <v>132</v>
-      </c>
-      <c r="C70" t="s">
+      <c r="D70" t="s">
+        <v>422</v>
+      </c>
+      <c r="F70" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A71" t="s">
+        <v>134</v>
+      </c>
+      <c r="B71" t="s">
+        <v>135</v>
+      </c>
+      <c r="C71" t="s">
+        <v>423</v>
+      </c>
+      <c r="D71" t="s">
+        <v>424</v>
+      </c>
+      <c r="F71" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A72" t="s">
+        <v>136</v>
+      </c>
+      <c r="B72" t="s">
+        <v>137</v>
+      </c>
+      <c r="C72" t="s">
+        <v>425</v>
+      </c>
+      <c r="D72" t="s">
+        <v>426</v>
+      </c>
+      <c r="F72" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A73" t="s">
+        <v>138</v>
+      </c>
+      <c r="B73" t="s">
+        <v>139</v>
+      </c>
+      <c r="C73" t="s">
+        <v>427</v>
+      </c>
+      <c r="D73" t="s">
+        <v>428</v>
+      </c>
+      <c r="F73" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A74" t="s">
+        <v>140</v>
+      </c>
+      <c r="B74" t="s">
+        <v>141</v>
+      </c>
+      <c r="C74" t="s">
         <v>417</v>
       </c>
-      <c r="D70" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4">
-      <c r="A71" t="s">
-        <v>133</v>
-      </c>
-      <c r="B71" t="s">
-        <v>134</v>
-      </c>
-      <c r="C71" t="s">
-        <v>424</v>
-      </c>
-      <c r="D71" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
-      <c r="A72" t="s">
-        <v>135</v>
-      </c>
-      <c r="B72" t="s">
-        <v>136</v>
-      </c>
-      <c r="C72" t="s">
-        <v>426</v>
-      </c>
-      <c r="D72" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
-      <c r="A73" t="s">
-        <v>137</v>
-      </c>
-      <c r="B73" t="s">
-        <v>138</v>
-      </c>
-      <c r="C73" t="s">
-        <v>428</v>
-      </c>
-      <c r="D73" t="s">
+      <c r="D74" t="s">
         <v>429</v>
       </c>
-    </row>
-    <row r="74" spans="1:4">
-      <c r="A74" t="s">
-        <v>139</v>
-      </c>
-      <c r="B74" t="s">
-        <v>140</v>
-      </c>
-      <c r="C74" t="s">
+      <c r="F74" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A75" t="s">
+        <v>142</v>
+      </c>
+      <c r="B75" t="s">
+        <v>143</v>
+      </c>
+      <c r="C75" t="s">
+        <v>420</v>
+      </c>
+      <c r="D75" t="s">
+        <v>430</v>
+      </c>
+      <c r="F75" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A76" t="s">
+        <v>144</v>
+      </c>
+      <c r="B76" t="s">
+        <v>145</v>
+      </c>
+      <c r="C76" t="s">
+        <v>421</v>
+      </c>
+      <c r="D76" t="s">
+        <v>431</v>
+      </c>
+      <c r="F76" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A77" t="s">
+        <v>146</v>
+      </c>
+      <c r="B77" t="s">
+        <v>147</v>
+      </c>
+      <c r="C77" t="s">
+        <v>432</v>
+      </c>
+      <c r="D77" t="s">
+        <v>433</v>
+      </c>
+      <c r="F77" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A78" t="s">
+        <v>148</v>
+      </c>
+      <c r="B78" t="s">
+        <v>149</v>
+      </c>
+      <c r="C78" t="s">
+        <v>434</v>
+      </c>
+      <c r="D78" t="s">
+        <v>435</v>
+      </c>
+      <c r="F78" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A79" t="s">
+        <v>150</v>
+      </c>
+      <c r="B79" t="s">
+        <v>151</v>
+      </c>
+      <c r="C79" t="s">
+        <v>436</v>
+      </c>
+      <c r="D79" t="s">
+        <v>437</v>
+      </c>
+      <c r="F79" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A80" t="s">
+        <v>152</v>
+      </c>
+      <c r="B80" t="s">
+        <v>153</v>
+      </c>
+      <c r="C80" t="s">
+        <v>438</v>
+      </c>
+      <c r="D80" t="s">
+        <v>439</v>
+      </c>
+      <c r="F80" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A81" t="s">
+        <v>154</v>
+      </c>
+      <c r="B81" t="s">
+        <v>155</v>
+      </c>
+      <c r="C81" t="s">
+        <v>440</v>
+      </c>
+      <c r="D81" t="s">
+        <v>441</v>
+      </c>
+      <c r="F81" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A82" t="s">
+        <v>156</v>
+      </c>
+      <c r="B82" t="s">
+        <v>157</v>
+      </c>
+      <c r="C82" t="s">
+        <v>442</v>
+      </c>
+      <c r="D82" t="s">
+        <v>443</v>
+      </c>
+      <c r="F82" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A83" t="s">
+        <v>158</v>
+      </c>
+      <c r="B83" t="s">
+        <v>159</v>
+      </c>
+      <c r="C83" t="s">
         <v>418</v>
       </c>
-      <c r="D74" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
-      <c r="A75" t="s">
-        <v>141</v>
-      </c>
-      <c r="B75" t="s">
-        <v>142</v>
-      </c>
-      <c r="C75" t="s">
-        <v>421</v>
-      </c>
-      <c r="D75" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
-      <c r="A76" t="s">
-        <v>143</v>
-      </c>
-      <c r="B76" t="s">
-        <v>144</v>
-      </c>
-      <c r="C76" t="s">
-        <v>422</v>
-      </c>
-      <c r="D76" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4">
-      <c r="A77" t="s">
-        <v>145</v>
-      </c>
-      <c r="B77" t="s">
-        <v>146</v>
-      </c>
-      <c r="C77" t="s">
-        <v>433</v>
-      </c>
-      <c r="D77" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
-      <c r="A78" t="s">
-        <v>147</v>
-      </c>
-      <c r="B78" t="s">
-        <v>148</v>
-      </c>
-      <c r="C78" t="s">
-        <v>435</v>
-      </c>
-      <c r="D78" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
-      <c r="A79" t="s">
-        <v>149</v>
-      </c>
-      <c r="B79" t="s">
-        <v>150</v>
-      </c>
-      <c r="C79" t="s">
-        <v>437</v>
-      </c>
-      <c r="D79" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
-      <c r="A80" t="s">
-        <v>151</v>
-      </c>
-      <c r="B80" t="s">
-        <v>152</v>
-      </c>
-      <c r="C80" t="s">
-        <v>439</v>
-      </c>
-      <c r="D80" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
-      <c r="A81" t="s">
-        <v>153</v>
-      </c>
-      <c r="B81" t="s">
-        <v>154</v>
-      </c>
-      <c r="C81" t="s">
-        <v>441</v>
-      </c>
-      <c r="D81" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
-      <c r="A82" t="s">
-        <v>155</v>
-      </c>
-      <c r="B82" t="s">
-        <v>156</v>
-      </c>
-      <c r="C82" t="s">
-        <v>443</v>
-      </c>
-      <c r="D82" t="s">
+      <c r="D83" t="s">
         <v>444</v>
       </c>
-    </row>
-    <row r="83" spans="1:4">
-      <c r="A83" t="s">
-        <v>157</v>
-      </c>
-      <c r="B83" t="s">
-        <v>158</v>
-      </c>
-      <c r="C83" t="s">
-        <v>419</v>
-      </c>
-      <c r="D83" t="s">
+      <c r="F83" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A84" t="s">
+        <v>160</v>
+      </c>
+      <c r="B84" t="s">
+        <v>161</v>
+      </c>
+      <c r="C84" t="s">
         <v>445</v>
       </c>
-    </row>
-    <row r="84" spans="1:4">
-      <c r="A84" t="s">
+      <c r="D84" t="s">
+        <v>446</v>
+      </c>
+      <c r="F84" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A85" t="s">
+        <v>162</v>
+      </c>
+      <c r="B85" t="s">
+        <v>163</v>
+      </c>
+      <c r="C85" t="s">
+        <v>447</v>
+      </c>
+      <c r="D85" t="s">
+        <v>452</v>
+      </c>
+      <c r="F85" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A86" t="s">
+        <v>164</v>
+      </c>
+      <c r="B86" t="s">
+        <v>165</v>
+      </c>
+      <c r="C86" t="s">
+        <v>453</v>
+      </c>
+      <c r="D86" t="s">
+        <v>454</v>
+      </c>
+      <c r="F86" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A87" t="s">
+        <v>166</v>
+      </c>
+      <c r="B87" t="s">
+        <v>167</v>
+      </c>
+      <c r="C87" t="s">
+        <v>455</v>
+      </c>
+      <c r="D87" t="s">
+        <v>456</v>
+      </c>
+      <c r="F87" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A88" t="s">
+        <v>168</v>
+      </c>
+      <c r="B88" t="s">
+        <v>169</v>
+      </c>
+      <c r="C88" t="s">
+        <v>457</v>
+      </c>
+      <c r="D88" t="s">
+        <v>458</v>
+      </c>
+      <c r="F88" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A89" t="s">
+        <v>170</v>
+      </c>
+      <c r="B89" t="s">
+        <v>171</v>
+      </c>
+      <c r="C89" t="s">
+        <v>459</v>
+      </c>
+      <c r="D89" t="s">
+        <v>460</v>
+      </c>
+      <c r="F89" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A90" t="s">
+        <v>172</v>
+      </c>
+      <c r="B90" t="s">
+        <v>173</v>
+      </c>
+      <c r="C90" t="s">
+        <v>450</v>
+      </c>
+      <c r="D90" t="s">
+        <v>461</v>
+      </c>
+      <c r="F90" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A91" t="s">
+        <v>174</v>
+      </c>
+      <c r="B91" t="s">
+        <v>175</v>
+      </c>
+      <c r="C91" t="s">
+        <v>462</v>
+      </c>
+      <c r="D91" t="s">
+        <v>463</v>
+      </c>
+      <c r="F91" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A92" t="s">
+        <v>176</v>
+      </c>
+      <c r="B92" t="s">
         <v>159</v>
       </c>
-      <c r="B84" t="s">
-        <v>160</v>
-      </c>
-      <c r="C84" t="s">
-        <v>446</v>
-      </c>
-      <c r="D84" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4">
-      <c r="A85" t="s">
-        <v>161</v>
-      </c>
-      <c r="B85" t="s">
-        <v>162</v>
-      </c>
-      <c r="C85" t="s">
+      <c r="C92" t="s">
         <v>448</v>
       </c>
-      <c r="D85" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
-      <c r="A86" t="s">
-        <v>163</v>
-      </c>
-      <c r="B86" t="s">
-        <v>164</v>
-      </c>
-      <c r="C86" t="s">
-        <v>454</v>
-      </c>
-      <c r="D86" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
-      <c r="A87" t="s">
-        <v>165</v>
-      </c>
-      <c r="B87" t="s">
-        <v>166</v>
-      </c>
-      <c r="C87" t="s">
-        <v>456</v>
-      </c>
-      <c r="D87" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
-      <c r="A88" t="s">
-        <v>167</v>
-      </c>
-      <c r="B88" t="s">
-        <v>168</v>
-      </c>
-      <c r="C88" t="s">
-        <v>458</v>
-      </c>
-      <c r="D88" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
-      <c r="A89" t="s">
-        <v>169</v>
-      </c>
-      <c r="B89" t="s">
-        <v>170</v>
-      </c>
-      <c r="C89" t="s">
-        <v>460</v>
-      </c>
-      <c r="D89" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
-      <c r="A90" t="s">
-        <v>171</v>
-      </c>
-      <c r="B90" t="s">
-        <v>172</v>
-      </c>
-      <c r="C90" t="s">
-        <v>451</v>
-      </c>
-      <c r="D90" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
-      <c r="A91" t="s">
-        <v>173</v>
-      </c>
-      <c r="B91" t="s">
-        <v>174</v>
-      </c>
-      <c r="C91" t="s">
-        <v>463</v>
-      </c>
-      <c r="D91" t="s">
+      <c r="D92" t="s">
         <v>464</v>
       </c>
-    </row>
-    <row r="92" spans="1:4">
-      <c r="A92" t="s">
-        <v>175</v>
-      </c>
-      <c r="B92" t="s">
-        <v>176</v>
-      </c>
-      <c r="C92" t="s">
-        <v>449</v>
-      </c>
-      <c r="D92" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+      <c r="F92" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A93" t="s">
         <v>177</v>
       </c>
       <c r="B93" t="s">
-        <v>160</v>
+        <v>178</v>
       </c>
       <c r="C93" t="s">
+        <v>465</v>
+      </c>
+      <c r="D93" t="s">
         <v>466</v>
       </c>
-      <c r="D93" t="s">
+      <c r="F93" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A94" t="s">
+        <v>179</v>
+      </c>
+      <c r="B94" t="s">
+        <v>180</v>
+      </c>
+      <c r="C94" t="s">
         <v>467</v>
       </c>
-    </row>
-    <row r="94" spans="1:4">
-      <c r="A94" t="s">
-        <v>178</v>
-      </c>
-      <c r="B94" t="s">
-        <v>179</v>
-      </c>
-      <c r="C94" t="s">
+      <c r="D94" t="s">
         <v>468</v>
       </c>
-      <c r="D94" t="s">
+      <c r="F94" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A95" t="s">
+        <v>181</v>
+      </c>
+      <c r="B95" t="s">
+        <v>182</v>
+      </c>
+      <c r="C95" t="s">
         <v>469</v>
       </c>
-    </row>
-    <row r="95" spans="1:4">
-      <c r="A95" t="s">
-        <v>180</v>
-      </c>
-      <c r="B95" t="s">
-        <v>181</v>
-      </c>
-      <c r="C95" t="s">
+      <c r="D95" t="s">
         <v>470</v>
       </c>
-      <c r="D95" t="s">
+      <c r="F95" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A96" t="s">
+        <v>183</v>
+      </c>
+      <c r="B96" t="s">
+        <v>184</v>
+      </c>
+      <c r="C96" t="s">
         <v>471</v>
       </c>
-    </row>
-    <row r="96" spans="1:4">
-      <c r="A96" t="s">
-        <v>182</v>
-      </c>
-      <c r="B96" t="s">
-        <v>183</v>
-      </c>
-      <c r="C96" t="s">
+      <c r="D96" t="s">
         <v>472</v>
       </c>
-      <c r="D96" t="s">
+      <c r="F96" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A97" t="s">
+        <v>185</v>
+      </c>
+      <c r="B97" t="s">
+        <v>186</v>
+      </c>
+      <c r="C97" t="s">
         <v>473</v>
       </c>
-    </row>
-    <row r="97" spans="1:4">
-      <c r="A97" t="s">
-        <v>184</v>
-      </c>
-      <c r="B97" t="s">
-        <v>185</v>
-      </c>
-      <c r="C97" t="s">
+      <c r="D97" t="s">
         <v>474</v>
       </c>
-      <c r="D97" t="s">
+      <c r="F97" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A98" t="s">
+        <v>187</v>
+      </c>
+      <c r="B98" t="s">
+        <v>188</v>
+      </c>
+      <c r="C98" t="s">
+        <v>419</v>
+      </c>
+      <c r="D98" t="s">
         <v>475</v>
       </c>
-    </row>
-    <row r="98" spans="1:4">
-      <c r="A98" t="s">
-        <v>186</v>
-      </c>
-      <c r="B98" t="s">
-        <v>187</v>
-      </c>
-      <c r="C98" t="s">
-        <v>420</v>
-      </c>
-      <c r="D98" t="s">
+      <c r="F98" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A99" t="s">
+        <v>189</v>
+      </c>
+      <c r="B99" t="s">
+        <v>190</v>
+      </c>
+      <c r="C99" t="s">
         <v>476</v>
       </c>
-    </row>
-    <row r="99" spans="1:4">
-      <c r="A99" t="s">
-        <v>188</v>
-      </c>
-      <c r="B99" t="s">
-        <v>189</v>
-      </c>
-      <c r="C99" t="s">
+      <c r="D99" t="s">
         <v>477</v>
       </c>
-      <c r="D99" t="s">
+      <c r="F99" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A100" t="s">
+        <v>191</v>
+      </c>
+      <c r="B100" t="s">
+        <v>192</v>
+      </c>
+      <c r="C100" t="s">
         <v>478</v>
       </c>
-    </row>
-    <row r="100" spans="1:4">
-      <c r="A100" t="s">
-        <v>190</v>
-      </c>
-      <c r="B100" t="s">
-        <v>191</v>
-      </c>
-      <c r="C100" t="s">
+      <c r="D100" t="s">
         <v>479</v>
       </c>
-      <c r="D100" t="s">
+      <c r="F100" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A101" t="s">
+        <v>193</v>
+      </c>
+      <c r="B101" t="s">
+        <v>194</v>
+      </c>
+      <c r="C101" t="s">
         <v>480</v>
       </c>
-    </row>
-    <row r="101" spans="1:4">
-      <c r="A101" t="s">
-        <v>192</v>
-      </c>
-      <c r="B101" t="s">
-        <v>193</v>
-      </c>
-      <c r="C101" t="s">
+      <c r="D101" t="s">
         <v>481</v>
       </c>
-      <c r="D101" t="s">
+      <c r="F101" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A102" t="s">
+        <v>195</v>
+      </c>
+      <c r="B102" t="s">
+        <v>196</v>
+      </c>
+      <c r="C102" t="s">
         <v>482</v>
       </c>
-    </row>
-    <row r="102" spans="1:4">
-      <c r="A102" t="s">
-        <v>194</v>
-      </c>
-      <c r="B102" t="s">
-        <v>195</v>
-      </c>
-      <c r="C102" t="s">
+      <c r="D102" t="s">
         <v>483</v>
       </c>
-      <c r="D102" t="s">
+      <c r="F102" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A103" t="s">
+        <v>197</v>
+      </c>
+      <c r="B103" t="s">
+        <v>198</v>
+      </c>
+      <c r="C103" t="s">
         <v>484</v>
       </c>
-    </row>
-    <row r="103" spans="1:4">
-      <c r="A103" t="s">
-        <v>196</v>
-      </c>
-      <c r="B103" t="s">
-        <v>197</v>
-      </c>
-      <c r="C103" t="s">
+      <c r="D103" t="s">
         <v>485</v>
       </c>
-      <c r="D103" t="s">
+      <c r="F103" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A104" t="s">
+        <v>199</v>
+      </c>
+      <c r="B104" t="s">
+        <v>200</v>
+      </c>
+      <c r="C104" t="s">
+        <v>449</v>
+      </c>
+      <c r="D104" t="s">
         <v>486</v>
       </c>
-    </row>
-    <row r="104" spans="1:4">
-      <c r="A104" t="s">
-        <v>198</v>
-      </c>
-      <c r="B104" t="s">
-        <v>199</v>
-      </c>
-      <c r="C104" t="s">
-        <v>450</v>
-      </c>
-      <c r="D104" t="s">
+      <c r="F104" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A105" t="s">
+        <v>201</v>
+      </c>
+      <c r="B105" t="s">
+        <v>202</v>
+      </c>
+      <c r="C105" t="s">
         <v>487</v>
       </c>
-    </row>
-    <row r="105" spans="1:4">
-      <c r="A105" t="s">
-        <v>200</v>
-      </c>
-      <c r="B105" t="s">
-        <v>201</v>
-      </c>
-      <c r="C105" t="s">
+      <c r="D105" t="s">
         <v>488</v>
       </c>
-      <c r="D105" t="s">
+      <c r="F105" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A106" t="s">
+        <v>203</v>
+      </c>
+      <c r="B106" t="s">
+        <v>204</v>
+      </c>
+      <c r="C106" t="s">
         <v>489</v>
       </c>
-    </row>
-    <row r="106" spans="1:4">
-      <c r="A106" t="s">
-        <v>202</v>
-      </c>
-      <c r="B106" t="s">
-        <v>203</v>
-      </c>
-      <c r="C106" t="s">
+      <c r="D106" t="s">
         <v>490</v>
       </c>
-      <c r="D106" t="s">
+      <c r="F106" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A107" t="s">
+        <v>205</v>
+      </c>
+      <c r="B107" t="s">
+        <v>206</v>
+      </c>
+      <c r="C107" t="s">
         <v>491</v>
       </c>
-    </row>
-    <row r="107" spans="1:4">
-      <c r="A107" t="s">
-        <v>204</v>
-      </c>
-      <c r="B107" t="s">
-        <v>205</v>
-      </c>
-      <c r="C107" t="s">
+      <c r="D107" t="s">
         <v>492</v>
       </c>
-      <c r="D107" t="s">
+      <c r="F107" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A108" t="s">
+        <v>207</v>
+      </c>
+      <c r="B108" t="s">
+        <v>208</v>
+      </c>
+      <c r="C108" t="s">
         <v>493</v>
       </c>
-    </row>
-    <row r="108" spans="1:4">
-      <c r="A108" t="s">
-        <v>206</v>
-      </c>
-      <c r="B108" t="s">
-        <v>207</v>
-      </c>
-      <c r="C108" t="s">
+      <c r="D108" t="s">
         <v>494</v>
       </c>
-      <c r="D108" t="s">
+      <c r="F108" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A109" t="s">
+        <v>209</v>
+      </c>
+      <c r="B109" t="s">
+        <v>210</v>
+      </c>
+      <c r="C109" t="s">
         <v>495</v>
       </c>
-    </row>
-    <row r="109" spans="1:4">
-      <c r="A109" t="s">
-        <v>208</v>
-      </c>
-      <c r="B109" t="s">
-        <v>209</v>
-      </c>
-      <c r="C109" t="s">
+      <c r="D109" t="s">
         <v>496</v>
       </c>
-      <c r="D109" t="s">
+      <c r="F109" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A110" t="s">
+        <v>211</v>
+      </c>
+      <c r="B110" t="s">
+        <v>212</v>
+      </c>
+      <c r="C110" t="s">
+        <v>451</v>
+      </c>
+      <c r="D110" t="s">
         <v>497</v>
       </c>
-    </row>
-    <row r="110" spans="1:4">
-      <c r="A110" t="s">
-        <v>210</v>
-      </c>
-      <c r="B110" t="s">
-        <v>211</v>
-      </c>
-      <c r="C110" t="s">
-        <v>452</v>
-      </c>
-      <c r="D110" t="s">
+      <c r="F110" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A111" t="s">
+        <v>213</v>
+      </c>
+      <c r="B111" t="s">
+        <v>214</v>
+      </c>
+      <c r="C111" t="s">
         <v>498</v>
       </c>
-    </row>
-    <row r="111" spans="1:4">
-      <c r="A111" t="s">
-        <v>212</v>
-      </c>
-      <c r="B111" t="s">
-        <v>213</v>
-      </c>
-      <c r="C111" t="s">
+      <c r="D111" t="s">
         <v>499</v>
       </c>
-      <c r="D111" t="s">
+      <c r="F111" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A112" t="s">
+        <v>215</v>
+      </c>
+      <c r="B112" t="s">
+        <v>216</v>
+      </c>
+      <c r="C112" t="s">
         <v>500</v>
       </c>
-    </row>
-    <row r="112" spans="1:4">
-      <c r="A112" t="s">
-        <v>214</v>
-      </c>
-      <c r="B112" t="s">
-        <v>215</v>
-      </c>
-      <c r="C112" t="s">
+      <c r="D112" t="s">
         <v>501</v>
       </c>
-      <c r="D112" t="s">
+      <c r="F112" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A113" t="s">
+        <v>217</v>
+      </c>
+      <c r="B113" t="s">
+        <v>218</v>
+      </c>
+      <c r="C113" t="s">
         <v>502</v>
       </c>
-    </row>
-    <row r="113" spans="1:4">
-      <c r="A113" t="s">
+      <c r="D113" t="s">
+        <v>503</v>
+      </c>
+      <c r="F113" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A114" t="s">
+        <v>219</v>
+      </c>
+      <c r="B114" t="s">
+        <v>220</v>
+      </c>
+      <c r="C114" t="s">
+        <v>504</v>
+      </c>
+      <c r="D114" t="s">
+        <v>505</v>
+      </c>
+      <c r="F114" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A115" t="s">
+        <v>221</v>
+      </c>
+      <c r="B115" t="s">
+        <v>222</v>
+      </c>
+      <c r="C115" t="s">
+        <v>565</v>
+      </c>
+      <c r="D115" t="s">
+        <v>566</v>
+      </c>
+      <c r="F115" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A116" t="s">
+        <v>223</v>
+      </c>
+      <c r="B116" t="s">
+        <v>224</v>
+      </c>
+      <c r="F116" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A117" t="s">
+        <v>225</v>
+      </c>
+      <c r="B117" t="s">
+        <v>226</v>
+      </c>
+      <c r="F117" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A118" t="s">
+        <v>227</v>
+      </c>
+      <c r="B118" t="s">
+        <v>228</v>
+      </c>
+      <c r="F118" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A119" t="s">
+        <v>229</v>
+      </c>
+      <c r="B119" t="s">
+        <v>230</v>
+      </c>
+      <c r="F119" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A120" t="s">
+        <v>231</v>
+      </c>
+      <c r="B120" t="s">
+        <v>232</v>
+      </c>
+      <c r="F120" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A121" t="s">
+        <v>233</v>
+      </c>
+      <c r="B121" t="s">
+        <v>234</v>
+      </c>
+      <c r="F121" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A122" t="s">
+        <v>235</v>
+      </c>
+      <c r="B122" t="s">
+        <v>236</v>
+      </c>
+      <c r="F122" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A123" t="s">
+        <v>237</v>
+      </c>
+      <c r="B123" t="s">
+        <v>238</v>
+      </c>
+      <c r="F123" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A124" t="s">
+        <v>239</v>
+      </c>
+      <c r="B124" t="s">
         <v>216</v>
       </c>
-      <c r="B113" t="s">
-        <v>217</v>
-      </c>
-      <c r="C113" t="s">
-        <v>503</v>
-      </c>
-      <c r="D113" t="s">
-        <v>504</v>
-      </c>
-    </row>
-    <row r="114" spans="1:4">
-      <c r="A114" t="s">
-        <v>218</v>
-      </c>
-      <c r="B114" t="s">
-        <v>219</v>
-      </c>
-      <c r="C114" t="s">
-        <v>505</v>
-      </c>
-      <c r="D114" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="115" spans="1:4">
-      <c r="A115" t="s">
-        <v>220</v>
-      </c>
-      <c r="B115" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="116" spans="1:4">
-      <c r="A116" t="s">
-        <v>222</v>
-      </c>
-      <c r="B116" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="117" spans="1:4">
-      <c r="A117" t="s">
-        <v>224</v>
-      </c>
-      <c r="B117" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="118" spans="1:4">
-      <c r="A118" t="s">
-        <v>226</v>
-      </c>
-      <c r="B118" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="119" spans="1:4">
-      <c r="A119" t="s">
-        <v>228</v>
-      </c>
-      <c r="B119" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="120" spans="1:4">
-      <c r="A120" t="s">
-        <v>230</v>
-      </c>
-      <c r="B120" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="121" spans="1:4">
-      <c r="A121" t="s">
-        <v>232</v>
-      </c>
-      <c r="B121" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="122" spans="1:4">
-      <c r="A122" t="s">
-        <v>234</v>
-      </c>
-      <c r="B122" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="123" spans="1:4">
-      <c r="A123" t="s">
-        <v>236</v>
-      </c>
-      <c r="B123" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="124" spans="1:4">
-      <c r="A124" t="s">
-        <v>238</v>
-      </c>
-      <c r="B124" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="125" spans="1:4">
+      <c r="F124" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A125" t="s">
         <v>240</v>
       </c>
       <c r="B125" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="126" spans="1:4">
+        <v>241</v>
+      </c>
+      <c r="F125" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A126" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="B126" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="127" spans="1:4">
+        <v>243</v>
+      </c>
+      <c r="F126" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A127" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="B127" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="128" spans="1:4">
+        <v>245</v>
+      </c>
+      <c r="F127" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A128" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="B128" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="129" spans="1:2">
+        <v>247</v>
+      </c>
+      <c r="F128" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A129" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="B129" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="130" spans="1:2">
+        <v>249</v>
+      </c>
+      <c r="F129" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A130" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="B130" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="131" spans="1:2">
+        <v>251</v>
+      </c>
+      <c r="F130" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A131" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="B131" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="132" spans="1:2">
+        <v>253</v>
+      </c>
+      <c r="F131" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A132" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="B132" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="133" spans="1:2">
+        <v>255</v>
+      </c>
+      <c r="F132" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A133" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="B133" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="134" spans="1:2">
+        <v>257</v>
+      </c>
+      <c r="F133" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A134" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="B134" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="135" spans="1:2">
+        <v>259</v>
+      </c>
+      <c r="F134" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A135" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="B135" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="136" spans="1:2">
+        <v>261</v>
+      </c>
+      <c r="F135" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A136" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="B136" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="137" spans="1:2">
+        <v>263</v>
+      </c>
+      <c r="F136" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A137" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="B137" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="138" spans="1:2">
+        <v>265</v>
+      </c>
+      <c r="F137" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A138" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="B138" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="139" spans="1:2">
+        <v>267</v>
+      </c>
+      <c r="F138" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A139" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="B139" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="140" spans="1:2">
+        <v>269</v>
+      </c>
+      <c r="F139" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A140" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="B140" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="141" spans="1:2">
+        <v>271</v>
+      </c>
+      <c r="F140" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A141" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="B141" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="142" spans="1:2">
-      <c r="A142" t="s">
         <v>273</v>
       </c>
-      <c r="B142" t="s">
-        <v>274</v>
+      <c r="F141" t="s">
+        <v>509</v>
       </c>
     </row>
   </sheetData>
